--- a/company/linkedin/linkedin高频.xlsx
+++ b/company/linkedin/linkedin高频.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bozhou/Dropbox/interview/company/linkedin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96BDA29-D983-EB4F-BABB-3A7EF1B0043C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B226ED1D-B97F-C34A-92E8-47C3353B874C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="73440" yWindow="3580" windowWidth="28040" windowHeight="17440" xr2:uid="{04ABC891-5ECD-B14B-BBD8-A93D32370AA1}"/>
+    <workbookView xWindow="75240" yWindow="3700" windowWidth="28040" windowHeight="17440" xr2:uid="{04ABC891-5ECD-B14B-BBD8-A93D32370AA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -649,7 +649,7 @@
   <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/company/linkedin/linkedin高频.xlsx
+++ b/company/linkedin/linkedin高频.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bozhou/Dropbox/interview/company/linkedin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B226ED1D-B97F-C34A-92E8-47C3353B874C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1CAA6C2-342E-BA47-B00A-7DC02E70C6EE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="75240" yWindow="3700" windowWidth="28040" windowHeight="17440" xr2:uid="{04ABC891-5ECD-B14B-BBD8-A93D32370AA1}"/>
   </bookViews>
@@ -648,8 +648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13919B8-F934-B64B-811A-4EC5AB312C98}">
   <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/company/linkedin/linkedin高频.xlsx
+++ b/company/linkedin/linkedin高频.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bozhou/Dropbox/interview/company/linkedin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1CAA6C2-342E-BA47-B00A-7DC02E70C6EE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BAC5851-3247-C342-926E-18DF5C4BB1BC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="75240" yWindow="3700" windowWidth="28040" windowHeight="17440" xr2:uid="{04ABC891-5ECD-B14B-BBD8-A93D32370AA1}"/>
+    <workbookView xWindow="81220" yWindow="4120" windowWidth="28040" windowHeight="17440" xr2:uid="{04ABC891-5ECD-B14B-BBD8-A93D32370AA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="90">
   <si>
     <t>Leetcode number</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Max Points on a Line</t>
   </si>
   <si>
-    <t>Permutations</t>
-  </si>
-  <si>
     <t>Maximum Depth of Binary Tree</t>
   </si>
   <si>
@@ -280,13 +277,37 @@
   </si>
   <si>
     <t>Merge k Sorted Lists</t>
+  </si>
+  <si>
+    <t>Binary Search Tree Iterator</t>
+  </si>
+  <si>
+    <t>46,47</t>
+  </si>
+  <si>
+    <t>Permutations I + II</t>
+  </si>
+  <si>
+    <t>126, 127</t>
+  </si>
+  <si>
+    <t>256, 265</t>
+  </si>
+  <si>
+    <t>380, 381</t>
+  </si>
+  <si>
+    <t>270, 272</t>
+  </si>
+  <si>
+    <t>339, 364</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -298,6 +319,13 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -324,13 +352,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -646,10 +675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13919B8-F934-B64B-811A-4EC5AB312C98}">
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -672,10 +701,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>658</v>
+        <v>173</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>82</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -683,449 +712,449 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
+        <v>658</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>698</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>126127</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>200</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>373</v>
+        <v>235</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>349</v>
+        <v>373</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>88</v>
+        <v>349</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
+        <v>88</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>730</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>256265</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" t="s">
         <v>18</v>
       </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="C12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>149</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>380381</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" t="s">
         <v>20</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>329</v>
-      </c>
-      <c r="B14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>716</v>
+        <v>329</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>146</v>
+        <v>716</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
+        <v>146</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>432</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>12</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
         <v>9</v>
       </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>236</v>
-      </c>
-      <c r="B20" t="s">
-        <v>10</v>
-      </c>
       <c r="C20">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>322</v>
+        <v>236</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>46</v>
+        <v>322</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="A23" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>366</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>13</v>
       </c>
-      <c r="C23">
+      <c r="C24">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
         <v>16</v>
       </c>
-      <c r="C24">
+      <c r="C25">
         <v>7</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>160</v>
-      </c>
-      <c r="B25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25">
-        <v>2</v>
+      <c r="D25" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>103</v>
+        <v>160</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>636</v>
+        <v>57</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>69</v>
+        <v>636</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
+        <v>69</v>
+      </c>
+      <c r="B30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>215</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>297</v>
+      </c>
+      <c r="B33" t="s">
         <v>44</v>
       </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
-        <v>270272</v>
-      </c>
-      <c r="B31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>297</v>
-      </c>
-      <c r="B32" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
+      <c r="C33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
         <v>17</v>
       </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>341</v>
-      </c>
-      <c r="B34" t="s">
-        <v>46</v>
-      </c>
       <c r="C34">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>160</v>
+        <v>341</v>
       </c>
       <c r="B35" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
+        <v>160</v>
+      </c>
+      <c r="B36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
         <v>890</v>
       </c>
-      <c r="B36" t="s">
-        <v>47</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="2">
-        <v>339364</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>55</v>
+      <c r="B37" t="s">
+        <v>46</v>
       </c>
       <c r="C37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38">
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
         <v>243244245</v>
       </c>
-      <c r="B38" t="s">
-        <v>53</v>
-      </c>
-      <c r="C38">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>886</v>
-      </c>
       <c r="B39" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>104</v>
+        <v>886</v>
       </c>
       <c r="B40" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C40">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B41" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
+        <v>102</v>
+      </c>
+      <c r="B42" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
         <v>382</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>21</v>
       </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
+      <c r="C43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
         <v>22</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>600</v>
-      </c>
-      <c r="B44" t="s">
-        <v>50</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -1133,10 +1162,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>948</v>
+        <v>600</v>
       </c>
       <c r="B45" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -1144,252 +1173,252 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
+        <v>948</v>
+      </c>
+      <c r="B46" t="s">
         <v>50</v>
       </c>
-      <c r="B46" t="s">
-        <v>52</v>
-      </c>
       <c r="C46">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="C47">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>611</v>
+        <v>65</v>
       </c>
       <c r="B48" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C48">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>516</v>
+        <v>611</v>
       </c>
       <c r="B49" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C49">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
+        <v>516</v>
+      </c>
+      <c r="B50" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51">
         <v>150</v>
       </c>
-      <c r="B50" t="s">
-        <v>27</v>
-      </c>
-      <c r="C50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C51">
         <v>3</v>
       </c>
-      <c r="D51" s="3" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>136</v>
-      </c>
       <c r="B52" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C52">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>53</v>
+        <v>136</v>
       </c>
       <c r="B53" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C53">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C54">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>621</v>
+        <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>170</v>
+        <v>621</v>
       </c>
       <c r="B56" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="C56">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>33</v>
+        <v>170</v>
       </c>
       <c r="B57" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>152</v>
+        <v>33</v>
       </c>
       <c r="B58" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C58">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>377</v>
+        <v>152</v>
       </c>
       <c r="B59" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C59">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60">
+        <v>377</v>
+      </c>
+      <c r="B60" t="s">
+        <v>58</v>
+      </c>
+      <c r="C60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61">
         <v>125</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B61" t="s">
+        <v>59</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>72</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>72</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C61">
+      <c r="C62">
         <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>277</v>
-      </c>
-      <c r="B62" t="s">
-        <v>62</v>
-      </c>
-      <c r="C62">
-        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>5</v>
+        <v>277</v>
       </c>
       <c r="B63" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C63">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>156</v>
+        <v>5</v>
       </c>
       <c r="B64" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C64">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>605</v>
+        <v>156</v>
       </c>
       <c r="B65" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
+        <v>605</v>
+      </c>
+      <c r="B66" t="s">
+        <v>65</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="4">
         <v>706</v>
       </c>
-      <c r="B66" t="s">
-        <v>67</v>
-      </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>426</v>
-      </c>
-      <c r="B67" t="s">
-        <v>69</v>
+      <c r="B67" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>384</v>
+        <v>426</v>
       </c>
       <c r="B68" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -1397,10 +1426,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>20</v>
+        <v>384</v>
       </c>
       <c r="B69" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -1408,10 +1437,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>142</v>
+        <v>20</v>
       </c>
       <c r="B70" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -1419,32 +1448,32 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>68</v>
+        <v>142</v>
       </c>
       <c r="B71" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C71">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>268</v>
+        <v>68</v>
       </c>
       <c r="B72" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>62</v>
+        <v>268</v>
       </c>
       <c r="B73" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -1452,10 +1481,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>352</v>
+        <v>62</v>
       </c>
       <c r="B74" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -1463,10 +1492,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>416</v>
+        <v>352</v>
       </c>
       <c r="B75" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -1474,10 +1503,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>547</v>
+        <v>416</v>
       </c>
       <c r="B76" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -1485,10 +1514,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>671</v>
+        <v>547</v>
       </c>
       <c r="B77" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -1496,10 +1525,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>254</v>
+        <v>671</v>
       </c>
       <c r="B78" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -1507,10 +1536,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>895</v>
+        <v>254</v>
       </c>
       <c r="B79" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -1518,19 +1547,30 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80">
+        <v>895</v>
+      </c>
+      <c r="B80" t="s">
+        <v>80</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81">
         <v>23</v>
       </c>
-      <c r="B80" t="s">
-        <v>82</v>
-      </c>
-      <c r="C80">
+      <c r="B81" t="s">
+        <v>81</v>
+      </c>
+      <c r="C81">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D51" r:id="rId1" xr:uid="{582B8246-2A4D-1545-BAF5-FC7760B0C7DE}"/>
-    <hyperlink ref="D24" r:id="rId2" xr:uid="{2DBF4C8F-3CB3-4146-B18F-86DBB74280B2}"/>
+    <hyperlink ref="D52" r:id="rId1" xr:uid="{582B8246-2A4D-1545-BAF5-FC7760B0C7DE}"/>
+    <hyperlink ref="D25" r:id="rId2" xr:uid="{2DBF4C8F-3CB3-4146-B18F-86DBB74280B2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/company/linkedin/linkedin高频.xlsx
+++ b/company/linkedin/linkedin高频.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bozhou/Dropbox/interview/company/linkedin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BAC5851-3247-C342-926E-18DF5C4BB1BC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E23E20-C857-F44A-BD36-B7CFF9678665}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="81220" yWindow="4120" windowWidth="28040" windowHeight="17440" xr2:uid="{04ABC891-5ECD-B14B-BBD8-A93D32370AA1}"/>
+    <workbookView xWindow="72380" yWindow="3520" windowWidth="17420" windowHeight="17440" xr2:uid="{04ABC891-5ECD-B14B-BBD8-A93D32370AA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -678,7 +678,7 @@
   <dimension ref="A1:D81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/company/linkedin/linkedin高频.xlsx
+++ b/company/linkedin/linkedin高频.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bozhou/Dropbox/interview/company/linkedin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E23E20-C857-F44A-BD36-B7CFF9678665}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2DBB536-9949-234E-A9DD-6A6A9F56435C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="72380" yWindow="3520" windowWidth="17420" windowHeight="17440" xr2:uid="{04ABC891-5ECD-B14B-BBD8-A93D32370AA1}"/>
+    <workbookView xWindow="51180" yWindow="4100" windowWidth="17420" windowHeight="17440" xr2:uid="{04ABC891-5ECD-B14B-BBD8-A93D32370AA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="96">
   <si>
     <t>Leetcode number</t>
   </si>
@@ -87,9 +87,6 @@
     <t>Quicksort</t>
   </si>
   <si>
-    <t>Paint House</t>
-  </si>
-  <si>
     <t>Number of Islands</t>
   </si>
   <si>
@@ -301,13 +298,34 @@
   </si>
   <si>
     <t>339, 364</t>
+  </si>
+  <si>
+    <t>Reverse String</t>
+  </si>
+  <si>
+    <t>Merge Two Sorted Lists</t>
+  </si>
+  <si>
+    <t>House Robber</t>
+  </si>
+  <si>
+    <t>Set Matrix Zeroes</t>
+  </si>
+  <si>
+    <t>243, 244, 245</t>
+  </si>
+  <si>
+    <t>Paint House I + II</t>
+  </si>
+  <si>
+    <t>Same Tree</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -326,6 +344,50 @@
     <font>
       <sz val="12"/>
       <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -352,14 +414,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -675,10 +749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13919B8-F934-B64B-811A-4EC5AB312C98}">
-  <dimension ref="A1:D81"/>
+  <dimension ref="A1:D86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -688,7 +762,7 @@
     <col min="4" max="4" width="52.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -699,355 +773,359 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="2" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="9">
+        <v>8</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="13">
+        <v>100</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="13">
+        <v>1</v>
+      </c>
+      <c r="D3" s="14"/>
+    </row>
+    <row r="4" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>149</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>200</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>384</v>
+      </c>
+      <c r="B6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8">
+        <v>716</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>349</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>344</v>
+      </c>
+      <c r="B11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>605</v>
+      </c>
+      <c r="B14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>53</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>152</v>
+      </c>
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>198</v>
+      </c>
+      <c r="B17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>73</v>
+      </c>
+      <c r="B18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>50</v>
+      </c>
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>173</v>
       </c>
-      <c r="B2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="B20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>658</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B21" t="s">
         <v>4</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
         <v>698</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B22" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4">
+      <c r="C22" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+    <row r="23" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>235</v>
+      </c>
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>373</v>
+      </c>
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>88</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>730</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>200</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B28" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>235</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C29" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>329</v>
+      </c>
+      <c r="B30" t="s">
         <v>35</v>
       </c>
-      <c r="C7">
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>146</v>
+      </c>
+      <c r="B31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>373</v>
-      </c>
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>349</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="32" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="8">
+        <v>432</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33">
         <v>3</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>88</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>730</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>149</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>329</v>
-      </c>
-      <c r="B15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>716</v>
-      </c>
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>146</v>
-      </c>
-      <c r="B17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>432</v>
-      </c>
-      <c r="B18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>236</v>
-      </c>
-      <c r="B21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>322</v>
-      </c>
-      <c r="B22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B23" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>366</v>
-      </c>
-      <c r="B24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25">
-        <v>7</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>160</v>
-      </c>
-      <c r="B26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>103</v>
-      </c>
-      <c r="B27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>57</v>
-      </c>
-      <c r="B28" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>636</v>
-      </c>
-      <c r="B29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>69</v>
-      </c>
-      <c r="B30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>215</v>
-      </c>
-      <c r="B31" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B32" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>297</v>
-      </c>
-      <c r="B33" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -1055,10 +1133,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>341</v>
+        <v>236</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -1066,54 +1144,54 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
+        <v>322</v>
+      </c>
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="8">
+        <v>366</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
         <v>160</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B39" t="s">
         <v>14</v>
       </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>890</v>
-      </c>
-      <c r="B37" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C38">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="2">
-        <v>243244245</v>
-      </c>
-      <c r="B39" t="s">
-        <v>52</v>
-      </c>
       <c r="C39">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>886</v>
+        <v>103</v>
       </c>
       <c r="B40" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -1121,21 +1199,21 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="B41" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C41">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>102</v>
+        <v>636</v>
       </c>
       <c r="B42" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -1143,62 +1221,62 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>382</v>
+        <v>69</v>
       </c>
       <c r="B43" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>215</v>
+      </c>
       <c r="B44" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>600</v>
-      </c>
-      <c r="B45" t="s">
-        <v>49</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
+    <row r="45" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" s="8">
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>948</v>
+        <v>297</v>
       </c>
       <c r="B46" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>50</v>
-      </c>
       <c r="B47" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="C47">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>65</v>
+        <v>341</v>
       </c>
       <c r="B48" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C48">
         <v>4</v>
@@ -1206,87 +1284,84 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>611</v>
+        <v>160</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="C49">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>516</v>
+        <v>890</v>
       </c>
       <c r="B50" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C50">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>150</v>
+        <v>886</v>
       </c>
       <c r="B51" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C51">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>104</v>
+      </c>
       <c r="B52" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C52">
-        <v>3</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="B53" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="C53">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>53</v>
+        <v>382</v>
       </c>
       <c r="B54" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C54">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>56</v>
-      </c>
       <c r="B55" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C55">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>621</v>
+        <v>600</v>
       </c>
       <c r="B56" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -1294,32 +1369,32 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>170</v>
+        <v>948</v>
       </c>
       <c r="B57" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C57">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="B58" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>152</v>
+        <v>611</v>
       </c>
       <c r="B59" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="C59">
         <v>3</v>
@@ -1327,10 +1402,10 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>377</v>
+        <v>516</v>
       </c>
       <c r="B60" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="C60">
         <v>2</v>
@@ -1338,43 +1413,43 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="B61" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="C61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>72</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>60</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>26</v>
       </c>
       <c r="C62">
         <v>3</v>
       </c>
+      <c r="D62" s="2" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>277</v>
+        <v>136</v>
       </c>
       <c r="B63" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C63">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="B64" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="C64">
         <v>2</v>
@@ -1382,87 +1457,87 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>156</v>
+        <v>621</v>
       </c>
       <c r="B65" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="C65">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>605</v>
+        <v>170</v>
       </c>
       <c r="B66" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="4">
-        <v>706</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>66</v>
+      <c r="A67">
+        <v>33</v>
+      </c>
+      <c r="B67" t="s">
+        <v>55</v>
       </c>
       <c r="C67">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>426</v>
+        <v>377</v>
       </c>
       <c r="B68" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>384</v>
+        <v>125</v>
       </c>
       <c r="B69" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>20</v>
-      </c>
-      <c r="B70" t="s">
-        <v>70</v>
-      </c>
-      <c r="C70">
-        <v>1</v>
+    <row r="70" spans="1:3" s="9" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A70" s="9">
+        <v>72</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C70" s="9">
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>142</v>
+        <v>277</v>
       </c>
       <c r="B71" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C71">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="B72" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C72">
         <v>2</v>
@@ -1470,32 +1545,32 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>268</v>
+        <v>156</v>
       </c>
       <c r="B73" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>62</v>
-      </c>
-      <c r="B74" t="s">
-        <v>74</v>
+      <c r="A74" s="3">
+        <v>706</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="C74">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>352</v>
+        <v>426</v>
       </c>
       <c r="B75" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -1503,10 +1578,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>416</v>
+        <v>20</v>
       </c>
       <c r="B76" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -1514,10 +1589,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>547</v>
+        <v>142</v>
       </c>
       <c r="B77" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -1525,21 +1600,21 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>671</v>
+        <v>68</v>
       </c>
       <c r="B78" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="B79" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -1547,10 +1622,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>895</v>
+        <v>62</v>
       </c>
       <c r="B80" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -1558,19 +1633,74 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>23</v>
+        <v>352</v>
       </c>
       <c r="B81" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>416</v>
+      </c>
+      <c r="B82" t="s">
+        <v>75</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>547</v>
+      </c>
+      <c r="B83" t="s">
+        <v>76</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>671</v>
+      </c>
+      <c r="B84" t="s">
+        <v>77</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>254</v>
+      </c>
+      <c r="B85" t="s">
+        <v>78</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>895</v>
+      </c>
+      <c r="B86" t="s">
+        <v>79</v>
+      </c>
+      <c r="C86">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D52" r:id="rId1" xr:uid="{582B8246-2A4D-1545-BAF5-FC7760B0C7DE}"/>
-    <hyperlink ref="D25" r:id="rId2" xr:uid="{2DBF4C8F-3CB3-4146-B18F-86DBB74280B2}"/>
+    <hyperlink ref="D62" r:id="rId1" xr:uid="{582B8246-2A4D-1545-BAF5-FC7760B0C7DE}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{2DBF4C8F-3CB3-4146-B18F-86DBB74280B2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/company/linkedin/linkedin高频.xlsx
+++ b/company/linkedin/linkedin高频.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bozhou/Dropbox/interview/company/linkedin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2DBB536-9949-234E-A9DD-6A6A9F56435C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81FFCD2B-15D8-EC48-AEC4-54529743BF1D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51180" yWindow="4100" windowWidth="17420" windowHeight="17440" xr2:uid="{04ABC891-5ECD-B14B-BBD8-A93D32370AA1}"/>
+    <workbookView xWindow="72400" yWindow="4000" windowWidth="17420" windowHeight="17440" activeTab="1" xr2:uid="{04ABC891-5ECD-B14B-BBD8-A93D32370AA1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Algorithm" sheetId="1" r:id="rId1"/>
+    <sheet name="Design" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="128">
   <si>
     <t>Leetcode number</t>
   </si>
@@ -319,6 +320,102 @@
   </si>
   <si>
     <t>Same Tree</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Freq</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>shorten url的各‍‌‌‍‍‍‌‌‌‌‌‌‍‍种变种，比如新添feature：click stats，就是统计每个short url被read多少次</t>
+  </si>
+  <si>
+    <t>设计一个K/V store，支持基于单个KEY的insert/update/delete/fetch 操作，基本上照着RocksDB/Couchbase的实现来聊的</t>
+  </si>
+  <si>
+    <t>设计一个metric系统，包括怎么收集，aggregation，存储，查询，dashboard，alert</t>
+  </si>
+  <si>
+    <t>design monitoring system</t>
+  </si>
+  <si>
+    <t>https://www.1point3acres.com/bbs/thread-542321-1-1.html</t>
+  </si>
+  <si>
+    <t>Design top k exception in 24 hours.</t>
+  </si>
+  <si>
+    <t>设计日历</t>
+  </si>
+  <si>
+    <t>https://www.1point3acres.com/bbs/thread-532557-1-1.html</t>
+  </si>
+  <si>
+    <t>https://www.1point3acres.com/bbs/thread-531929-1-1.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.1point3acres.com/bbs/thread-531528-1-1.html </t>
+  </si>
+  <si>
+    <t>设计一个全球范围内的blacklist service</t>
+  </si>
+  <si>
+    <t>https://www.1point3acres.com/bbs/thread-531259-1-1.html</t>
+  </si>
+  <si>
+    <t>设计distributed Logging System</t>
+  </si>
+  <si>
+    <t>设计一个基于内存的streaming系统，stream以(timestamp‍‌‌‍‍‍‌‌‌‌‌‌‍‍, binary_size)的消息进入，然后client会query以ts结束大小为k的内容。</t>
+  </si>
+  <si>
+    <t>存储在线用户的在网站上的活动</t>
+  </si>
+  <si>
+    <t>https://www.1point3acres.com/bbs/thread-520850-1-1.html</t>
+  </si>
+  <si>
+    <t>Delayed Task Scheduler</t>
+  </si>
+  <si>
+    <t>设计一个系统监督和管理领英第三方API的流量</t>
+  </si>
+  <si>
+    <t>设计一个诊断系统，类似地理说的Kafka加上ag‍‌‌‍‍‍‌‌‌‌‌‌‍‍gregator的设计方式</t>
+  </si>
+  <si>
+    <t>设计二级好友三级好友</t>
+  </si>
+  <si>
+    <t>Amazon Product Page. 分析表之间的关系</t>
+  </si>
+  <si>
+    <t>https://www.1point3acres.com/bbs/thread-495284-1-1.html</t>
+  </si>
+  <si>
+    <t>Design Hangman Game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.1point3acres.com/bbs/thread-492225-1-1.html </t>
+  </si>
+  <si>
+    <t>设计trending linkedin share post</t>
+  </si>
+  <si>
+    <t>value体积比较大需要放在硬盘里面 另外随机写到硬盘会比较慢所以assume你要appending only</t>
+  </si>
+  <si>
+    <t>document repository</t>
+  </si>
+  <si>
+    <t>https://soulmachine.gitbooks.io/system-design/cn/task-scheduler.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.1point3acres.com/bbs/thread-446923-1-1.html </t>
   </si>
 </sst>
 </file>
@@ -751,8 +848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13919B8-F934-B64B-811A-4EC5AB312C98}">
   <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1422,14 +1519,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B62" t="s">
+    <row r="62" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="9">
         <v>3</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D62" s="11" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1704,4 +1801,224 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6A42AC-6C29-7E41-9C84-E5ED64CCDD94}">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="52.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>117</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>125</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C6" r:id="rId1" xr:uid="{B880D39A-EB29-3B45-9D2E-C674DD1FEE92}"/>
+    <hyperlink ref="D6" r:id="rId2" xr:uid="{7A6C955A-C9CB-D94E-9E47-1DFC63B4A29F}"/>
+    <hyperlink ref="C7" r:id="rId3" xr:uid="{CA4C8AD1-0DAF-1A43-A4AD-1D680D5EAA90}"/>
+    <hyperlink ref="C8" r:id="rId4" xr:uid="{607FD3F5-3481-2246-AA80-CADADE3D14E8}"/>
+    <hyperlink ref="C9" r:id="rId5" xr:uid="{D3CDFB96-9B44-B04D-A3A0-2F2823EAAE0C}"/>
+    <hyperlink ref="C13" r:id="rId6" xr:uid="{88AFD75B-027F-8748-884F-1743ABEE3E38}"/>
+    <hyperlink ref="C3" r:id="rId7" xr:uid="{157BEC7A-C7BA-3E40-9B5F-842A1E9241EB}"/>
+    <hyperlink ref="C4" r:id="rId8" xr:uid="{B149A8E5-D207-0042-9256-C5A6C5B35876}"/>
+    <hyperlink ref="C14" r:id="rId9" xr:uid="{F394E03C-7A35-014C-BB43-19BC16808AC8}"/>
+    <hyperlink ref="A2" r:id="rId10" xr:uid="{23CD15E4-7ED0-6047-B129-3A0760268310}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/company/linkedin/linkedin高频.xlsx
+++ b/company/linkedin/linkedin高频.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bozhou/Dropbox/interview/company/linkedin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81FFCD2B-15D8-EC48-AEC4-54529743BF1D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC8528F5-E1B9-164B-AEF7-D41D078A3044}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="72400" yWindow="4000" windowWidth="17420" windowHeight="17440" activeTab="1" xr2:uid="{04ABC891-5ECD-B14B-BBD8-A93D32370AA1}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="134">
   <si>
     <t>Leetcode number</t>
   </si>
@@ -416,6 +416,24 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.1point3acres.com/bbs/thread-446923-1-1.html </t>
+  </si>
+  <si>
+    <t>http://blog.gainlo.co/index.php/2016/06/14/design-a-key-value-store-part-i/</t>
+  </si>
+  <si>
+    <t>https://medium.com/@siddontang/build-up-a-high-availability-distributed-key-value-store-b4e02bc46e9e</t>
+  </si>
+  <si>
+    <t>http://blog.fourthbit.com/2015/04/12/building-a-distributed-fault-tolerant-key-value-store/</t>
+  </si>
+  <si>
+    <t>https://bravenewgeek.com/building-a-distributed-log-from-scratch-part-1-storage-mechanics/</t>
+  </si>
+  <si>
+    <t>https://hackernoon.com/part-1-building-a-centralized-logging-application-5a537033da0a</t>
+  </si>
+  <si>
+    <t>https://massivetechinterview.blogspot.com/2015/12/linkedin-get-secondthird-friends.html</t>
   </si>
 </sst>
 </file>
@@ -1805,10 +1823,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6A42AC-6C29-7E41-9C84-E5ED64CCDD94}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1816,7 +1834,7 @@
     <col min="1" max="1" width="52.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>96</v>
       </c>
@@ -1827,12 +1845,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>99</v>
       </c>
@@ -1843,7 +1861,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>100</v>
       </c>
@@ -1856,8 +1874,17 @@
       <c r="D4" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>101</v>
       </c>
@@ -1865,7 +1892,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>102</v>
       </c>
@@ -1879,7 +1906,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>104</v>
       </c>
@@ -1890,7 +1917,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>105</v>
       </c>
@@ -1901,7 +1928,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>109</v>
       </c>
@@ -1912,15 +1939,21 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>111</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C10" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>112</v>
       </c>
@@ -1928,7 +1961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>123</v>
       </c>
@@ -1936,7 +1969,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>113</v>
       </c>
@@ -1947,7 +1980,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>115</v>
       </c>
@@ -1958,7 +1991,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>116</v>
       </c>
@@ -1966,7 +1999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>117</v>
       </c>
@@ -1974,15 +2007,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>118</v>
       </c>
       <c r="B17">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C17" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>119</v>
       </c>
@@ -1990,7 +2026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>121</v>
       </c>
@@ -1998,7 +2034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>125</v>
       </c>
@@ -2018,6 +2054,12 @@
     <hyperlink ref="C4" r:id="rId8" xr:uid="{B149A8E5-D207-0042-9256-C5A6C5B35876}"/>
     <hyperlink ref="C14" r:id="rId9" xr:uid="{F394E03C-7A35-014C-BB43-19BC16808AC8}"/>
     <hyperlink ref="A2" r:id="rId10" xr:uid="{23CD15E4-7ED0-6047-B129-3A0760268310}"/>
+    <hyperlink ref="E4" r:id="rId11" xr:uid="{651935B8-6502-184B-A654-F6212FDC1D25}"/>
+    <hyperlink ref="F4" r:id="rId12" xr:uid="{58902E77-12BA-A641-B87A-C3FE956EA864}"/>
+    <hyperlink ref="G4" r:id="rId13" xr:uid="{7CA69986-1E40-2847-BA5B-4CB2A9775547}"/>
+    <hyperlink ref="C10" r:id="rId14" xr:uid="{0CCB0530-505D-8C4A-BF7F-A31CF5865B75}"/>
+    <hyperlink ref="D10" r:id="rId15" xr:uid="{8A8F7DC6-6899-274A-B7CE-81953503BE37}"/>
+    <hyperlink ref="C17" r:id="rId16" xr:uid="{DBA04197-3E7C-2C43-8C01-5771670E8E64}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/company/linkedin/linkedin高频.xlsx
+++ b/company/linkedin/linkedin高频.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bozhou/Dropbox/interview/company/linkedin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC8528F5-E1B9-164B-AEF7-D41D078A3044}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36952801-A44D-BF46-90A6-BAFD1D74EAB4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="72400" yWindow="4000" windowWidth="17420" windowHeight="17440" activeTab="1" xr2:uid="{04ABC891-5ECD-B14B-BBD8-A93D32370AA1}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="137">
   <si>
     <t>Leetcode number</t>
   </si>
@@ -434,6 +434,15 @@
   </si>
   <si>
     <t>https://massivetechinterview.blogspot.com/2015/12/linkedin-get-secondthird-friends.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">multiple producer multiple consumer concurrent queue </t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/25393938/multiple-producer-multiple-consumer-multithreading-java</t>
+  </si>
+  <si>
+    <t>https://www.1point3acres.com/bbs/thread-544663-1-1.html</t>
   </si>
 </sst>
 </file>
@@ -864,10 +873,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13919B8-F934-B64B-811A-4EC5AB312C98}">
-  <dimension ref="A1:D86"/>
+  <dimension ref="A1:D87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -888,134 +897,134 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="9" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8">
+        <v>432</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C5" s="9">
         <v>8</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D5" s="11" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="13">
+    <row r="6" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="13">
         <v>100</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B6" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="13">
-        <v>1</v>
-      </c>
-      <c r="D3" s="14"/>
-    </row>
-    <row r="4" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
+      <c r="C6" s="13">
+        <v>1</v>
+      </c>
+      <c r="D6" s="14"/>
+    </row>
+    <row r="7" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
         <v>149</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C7" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>200</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="C5">
+      <c r="C8">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>384</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B9" t="s">
         <v>68</v>
       </c>
-      <c r="C6">
+      <c r="C9">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
+    <row r="10" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8">
         <v>716</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C10" s="8">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+    <row r="11" spans="1:4" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B11" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C11" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+    <row r="12" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B12" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C12" s="8">
         <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>349</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>344</v>
-      </c>
-      <c r="B11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>90</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>23</v>
+        <v>349</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -1023,76 +1032,76 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>605</v>
+        <v>344</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>152</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>198</v>
+        <v>605</v>
       </c>
       <c r="B17" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>50</v>
+        <v>152</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C19">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -1100,139 +1109,142 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>658</v>
+        <v>73</v>
       </c>
       <c r="B21" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
-        <v>698</v>
-      </c>
-      <c r="B22" s="4" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>50</v>
+      </c>
+      <c r="B22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22">
         <v>5</v>
       </c>
-      <c r="C22" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="4">
-        <v>5</v>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>173</v>
+      </c>
+      <c r="B23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>235</v>
+        <v>658</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="C24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>373</v>
-      </c>
-      <c r="B25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>88</v>
-      </c>
-      <c r="B26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>698</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>730</v>
+        <v>235</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C28" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" s="8">
-        <v>12</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>373</v>
+      </c>
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>88</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
+        <v>730</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
         <v>329</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B32" t="s">
         <v>35</v>
       </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31">
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
         <v>146</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B33" t="s">
         <v>36</v>
-      </c>
-      <c r="C31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="8">
-        <v>432</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
-        <v>8</v>
       </c>
       <c r="C33">
         <v>3</v>
@@ -1240,180 +1252,177 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
         <v>9</v>
       </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>236</v>
-      </c>
-      <c r="B35" t="s">
-        <v>10</v>
-      </c>
       <c r="C35">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
+        <v>236</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
         <v>322</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>37</v>
       </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+      <c r="C37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>83</v>
       </c>
-      <c r="C37">
+      <c r="C38">
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="8">
+    <row r="39" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="8">
         <v>366</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B39" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C39" s="8">
         <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>160</v>
-      </c>
-      <c r="B39" t="s">
-        <v>14</v>
-      </c>
-      <c r="C39">
-        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>103</v>
+        <v>160</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C41">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>636</v>
+        <v>57</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>69</v>
+        <v>636</v>
       </c>
       <c r="B43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C43">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
+        <v>69</v>
+      </c>
+      <c r="B44" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45">
         <v>215</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" t="s">
         <v>42</v>
       </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="7" t="s">
+      <c r="C45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B46" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C45" s="8">
+      <c r="C46" s="8">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47">
         <v>297</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B47" t="s">
         <v>43</v>
       </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
+      <c r="C47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
         <v>17</v>
       </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>341</v>
-      </c>
-      <c r="B48" t="s">
-        <v>44</v>
-      </c>
       <c r="C48">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>160</v>
+        <v>341</v>
       </c>
       <c r="B49" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>890</v>
+        <v>160</v>
       </c>
       <c r="B50" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -1421,10 +1430,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>886</v>
+        <v>890</v>
       </c>
       <c r="B51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -1432,51 +1441,51 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>104</v>
+        <v>886</v>
       </c>
       <c r="B52" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="C52">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B53" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54">
+        <v>102</v>
+      </c>
+      <c r="B54" t="s">
+        <v>47</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55">
         <v>382</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B55" t="s">
         <v>20</v>
       </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B55" t="s">
+      <c r="C55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
         <v>21</v>
-      </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>600</v>
-      </c>
-      <c r="B56" t="s">
-        <v>48</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -1484,10 +1493,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>948</v>
+        <v>600</v>
       </c>
       <c r="B57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -1495,76 +1504,76 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>65</v>
+        <v>948</v>
       </c>
       <c r="B58" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="C58">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>611</v>
+        <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C59">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>516</v>
+        <v>611</v>
       </c>
       <c r="B60" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C60">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61">
+        <v>516</v>
+      </c>
+      <c r="B61" t="s">
+        <v>24</v>
+      </c>
+      <c r="C61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62">
         <v>150</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B62" t="s">
         <v>25</v>
       </c>
-      <c r="C61">
+      <c r="C62">
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="9" t="s">
+    <row r="63" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C62" s="9">
+      <c r="C63" s="9">
         <v>3</v>
       </c>
-      <c r="D62" s="11" t="s">
+      <c r="D63" s="11" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>136</v>
-      </c>
-      <c r="B63" t="s">
-        <v>27</v>
-      </c>
-      <c r="C63">
-        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>56</v>
+        <v>136</v>
       </c>
       <c r="B64" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C64">
         <v>2</v>
@@ -1572,131 +1581,131 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>621</v>
+        <v>56</v>
       </c>
       <c r="B65" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>170</v>
+        <v>621</v>
       </c>
       <c r="B66" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="C66">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>33</v>
+        <v>170</v>
       </c>
       <c r="B67" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>377</v>
+        <v>33</v>
       </c>
       <c r="B68" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C68">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
+        <v>377</v>
+      </c>
+      <c r="B69" t="s">
+        <v>57</v>
+      </c>
+      <c r="C69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70">
         <v>125</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B70" t="s">
         <v>58</v>
       </c>
-      <c r="C69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" s="9" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A70" s="9">
+      <c r="C70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" s="9" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A71" s="9">
         <v>72</v>
       </c>
-      <c r="B70" s="10" t="s">
+      <c r="B71" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C70" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>277</v>
-      </c>
-      <c r="B71" t="s">
-        <v>60</v>
-      </c>
-      <c r="C71">
+      <c r="C71" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>5</v>
+        <v>277</v>
       </c>
       <c r="B72" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C72">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
+        <v>5</v>
+      </c>
+      <c r="B73" t="s">
+        <v>61</v>
+      </c>
+      <c r="C73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74">
         <v>156</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B74" t="s">
         <v>63</v>
       </c>
-      <c r="C73">
+      <c r="C74">
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="3">
         <v>706</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B75" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C74">
+      <c r="C75">
         <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>426</v>
-      </c>
-      <c r="B75" t="s">
-        <v>67</v>
-      </c>
-      <c r="C75">
-        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>20</v>
+        <v>426</v>
       </c>
       <c r="B76" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -1704,10 +1713,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>142</v>
+        <v>20</v>
       </c>
       <c r="B77" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -1715,32 +1724,32 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>68</v>
+        <v>142</v>
       </c>
       <c r="B78" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C78">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>268</v>
+        <v>68</v>
       </c>
       <c r="B79" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>62</v>
+        <v>268</v>
       </c>
       <c r="B80" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -1748,10 +1757,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>352</v>
+        <v>62</v>
       </c>
       <c r="B81" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -1759,10 +1768,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>416</v>
+        <v>352</v>
       </c>
       <c r="B82" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -1770,10 +1779,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>547</v>
+        <v>416</v>
       </c>
       <c r="B83" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -1781,10 +1790,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>671</v>
+        <v>547</v>
       </c>
       <c r="B84" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -1792,10 +1801,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>254</v>
+        <v>671</v>
       </c>
       <c r="B85" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -1803,19 +1812,31 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86">
+        <v>254</v>
+      </c>
+      <c r="B86" t="s">
+        <v>78</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87">
         <v>895</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B87" t="s">
         <v>79</v>
       </c>
-      <c r="C86">
+      <c r="C87">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D62" r:id="rId1" xr:uid="{582B8246-2A4D-1545-BAF5-FC7760B0C7DE}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{2DBF4C8F-3CB3-4146-B18F-86DBB74280B2}"/>
+    <hyperlink ref="D63" r:id="rId1" xr:uid="{582B8246-2A4D-1545-BAF5-FC7760B0C7DE}"/>
+    <hyperlink ref="D5" r:id="rId2" xr:uid="{2DBF4C8F-3CB3-4146-B18F-86DBB74280B2}"/>
+    <hyperlink ref="D2" r:id="rId3" xr:uid="{9D462EF2-DFA9-7348-9444-E574AE254A6B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1826,7 +1847,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1866,7 +1887,7 @@
         <v>100</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>122</v>
@@ -1889,7 +1910,10 @@
         <v>101</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1985,7 +2009,7 @@
         <v>115</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>126</v>
@@ -2060,6 +2084,7 @@
     <hyperlink ref="C10" r:id="rId14" xr:uid="{0CCB0530-505D-8C4A-BF7F-A31CF5865B75}"/>
     <hyperlink ref="D10" r:id="rId15" xr:uid="{8A8F7DC6-6899-274A-B7CE-81953503BE37}"/>
     <hyperlink ref="C17" r:id="rId16" xr:uid="{DBA04197-3E7C-2C43-8C01-5771670E8E64}"/>
+    <hyperlink ref="C5" r:id="rId17" xr:uid="{C734A73C-01E4-A641-A26C-117257071656}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/company/linkedin/linkedin高频.xlsx
+++ b/company/linkedin/linkedin高频.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bozhou/Dropbox/interview/company/linkedin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36952801-A44D-BF46-90A6-BAFD1D74EAB4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B45321-AD06-D84D-BF4D-52BBB000BA35}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="72400" yWindow="4000" windowWidth="17420" windowHeight="17440" activeTab="1" xr2:uid="{04ABC891-5ECD-B14B-BBD8-A93D32370AA1}"/>
+    <workbookView xWindow="16540" yWindow="3300" windowWidth="15780" windowHeight="14180" xr2:uid="{04ABC891-5ECD-B14B-BBD8-A93D32370AA1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Algorithm" sheetId="1" r:id="rId1"/>
+    <sheet name="Onsite" sheetId="3" r:id="rId1"/>
     <sheet name="Design" sheetId="2" r:id="rId2"/>
+    <sheet name="Algorithm" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="177">
   <si>
     <t>Leetcode number</t>
   </si>
@@ -334,9 +335,6 @@
     <t>shorten url的各‍‌‌‍‍‍‌‌‌‌‌‌‍‍种变种，比如新添feature：click stats，就是统计每个short url被read多少次</t>
   </si>
   <si>
-    <t>设计一个K/V store，支持基于单个KEY的insert/update/delete/fetch 操作，基本上照着RocksDB/Couchbase的实现来聊的</t>
-  </si>
-  <si>
     <t>设计一个metric系统，包括怎么收集，aggregation，存储，查询，dashboard，alert</t>
   </si>
   <si>
@@ -361,18 +359,12 @@
     <t xml:space="preserve">https://www.1point3acres.com/bbs/thread-531528-1-1.html </t>
   </si>
   <si>
-    <t>设计一个全球范围内的blacklist service</t>
-  </si>
-  <si>
     <t>https://www.1point3acres.com/bbs/thread-531259-1-1.html</t>
   </si>
   <si>
     <t>设计distributed Logging System</t>
   </si>
   <si>
-    <t>设计一个基于内存的streaming系统，stream以(timestamp‍‌‌‍‍‍‌‌‌‌‌‌‍‍, binary_size)的消息进入，然后client会query以ts结束大小为k的内容。</t>
-  </si>
-  <si>
     <t>存储在线用户的在网站上的活动</t>
   </si>
   <si>
@@ -406,9 +398,6 @@
     <t>设计trending linkedin share post</t>
   </si>
   <si>
-    <t>value体积比较大需要放在硬盘里面 另外随机写到硬盘会比较慢所以assume你要appending only</t>
-  </si>
-  <si>
     <t>document repository</t>
   </si>
   <si>
@@ -443,13 +432,145 @@
   </si>
   <si>
     <t>https://www.1point3acres.com/bbs/thread-544663-1-1.html</t>
+  </si>
+  <si>
+    <t>Longest Substring Without Repeating Characters</t>
+  </si>
+  <si>
+    <t>Course Schedule II similar package dependency</t>
+  </si>
+  <si>
+    <t>subset with target</t>
+  </si>
+  <si>
+    <t>Sqrt(x) with double</t>
+  </si>
+  <si>
+    <t>https://www.1point3acres.com/bbs/thread-527707-1-1.html</t>
+  </si>
+  <si>
+    <t>binary tree with dash</t>
+  </si>
+  <si>
+    <t>rain and mountain</t>
+  </si>
+  <si>
+    <t>Reservoir Sampling</t>
+  </si>
+  <si>
+    <t>smallest k product of two sorted array</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/discuss/interview-question/302028/linkedin-smallest-k-products-of-two-sorted-array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Word Search </t>
+  </si>
+  <si>
+    <t>https://soulmachine.gitbooks.io/system-design/cn/key-value-store.html</t>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/haoxinyue/p/6663720.html</t>
+  </si>
+  <si>
+    <t>https://soulmachine.gitbooks.io/system-design/cn/bigdata/heavy-hitters.html</t>
+  </si>
+  <si>
+    <t>https://soulmachine.gitbooks.io/system-design/cn/tinyurl.html</t>
+  </si>
+  <si>
+    <t>https://github.com/FreemanZhang/system-design/blob/master/linkedin/calendar.md</t>
+  </si>
+  <si>
+    <t>设计一个K/V store，支持基于单个KEY的insert/update/delete/fetch 操作</t>
+  </si>
+  <si>
+    <t>设计一个基于内存的streaming系统 stream以(timestamp‍‌‌‍‍‍‌‌‌‌‌‌‍‍, binary_size)的消息进入 client会query以ts结束大小为k的内容。</t>
+  </si>
+  <si>
+    <t>https://github.com/FreemanZhang/system-design/blob/master/linkedin/topk.md</t>
+  </si>
+  <si>
+    <t>https://www.cloudflare.com/learning/cdn/what-is-a-cdn/</t>
+  </si>
+  <si>
+    <t>https://medium.com/system-designing-interviews/system-design-chapter-4-caching-b59a4cf83f10</t>
+  </si>
+  <si>
+    <t>https://qit-team.github.io/blog/2017/01/business-alarm-system.html</t>
+  </si>
+  <si>
+    <t>https://developer.lightbend.com/guides/monitoring-at-scale/monitoring-architecture/architecture.html</t>
+  </si>
+  <si>
+    <t>设计一个scalable的gateway 可以相应很大的qps(1million/sec)，然后filter掉可疑的ip，并且不影响正常用户的体验</t>
+  </si>
+  <si>
+    <t>https://wizardforcel.gitbooks.io/system-design-primer/16.html</t>
+  </si>
+  <si>
+    <t>http://www.topthink.com/topic/1545.html</t>
+  </si>
+  <si>
+    <t>http://blog.gainlo.co/index.php/2016/05/03/how-to-design-a-trending-algorithm-for-twitter/</t>
+  </si>
+  <si>
+    <t>https://blog.twitter.com/engineering/en_us/a/2015/building-a-new-trends-experience.html</t>
+  </si>
+  <si>
+    <t>http://www.michael-noll.com/blog/2013/01/18/implementing-real-time-trending-topics-in-storm/</t>
+  </si>
+  <si>
+    <t>https://engineering.linkedin.com/distributed-systems/log-what-every-software-engineer-should-know-about-real-time-datas-unifying</t>
+  </si>
+  <si>
+    <t>https://digitalguardian.com/blog/what-user-activity-monitoring-how-it-works-benefits-best-practices-and-more</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Kafka article</t>
+  </si>
+  <si>
+    <t>https://ytluck.github.io/big-data/my-bigdata-post-25.html</t>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/likehua/p/3999538.html</t>
+  </si>
+  <si>
+    <t>https://my.oschina.net/hblt147/blog/2992936</t>
+  </si>
+  <si>
+    <t>top k variant</t>
+  </si>
+  <si>
+    <t>https://www.1point3acres.com/bbs/thread-546532-1-1.html</t>
+  </si>
+  <si>
+    <t>一题多解</t>
+  </si>
+  <si>
+    <t>Graph Valid Tree</t>
+  </si>
+  <si>
+    <t>Intersection of Two Linked Lists (with cycle)</t>
+  </si>
+  <si>
+    <t>http://www.martinxia.me/2015/07/08/how-to-tell-if-two-linked-lists-intersect-v-s-how-to-detect-linked-list-cycle/</t>
+  </si>
+  <si>
+    <t>https://www.jiuzhang.com/qa/219/</t>
+  </si>
+  <si>
+    <t>https://www.infoq.cn/article/kafka-analysis-part-7/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -516,6 +637,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -538,7 +674,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -558,6 +694,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -872,11 +1013,964 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F891AA6-DAA6-234A-A229-4D5ADB569317}">
+  <dimension ref="A1:D50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8">
+        <v>156</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="15">
+        <v>236</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="13">
+        <v>261</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C5" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="15">
+        <v>160</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="C6" s="15">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="8">
+        <v>366</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="8">
+        <v>13</v>
+      </c>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="8">
+        <v>8</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>68</v>
+      </c>
+      <c r="B9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>377</v>
+      </c>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="8">
+        <v>716</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="8">
+        <v>15</v>
+      </c>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="13">
+        <v>3</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="15">
+        <v>254</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="15" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="15">
+        <v>72</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="8">
+        <v>10</v>
+      </c>
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="8">
+        <v>3</v>
+      </c>
+      <c r="D16" s="8"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="8">
+        <v>432</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="8">
+        <v>9</v>
+      </c>
+      <c r="D17" s="8"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="13">
+        <v>100</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="13">
+        <v>1</v>
+      </c>
+      <c r="D18" s="14"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
+        <v>149</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="6">
+        <v>7</v>
+      </c>
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="15">
+        <v>200</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>384</v>
+      </c>
+      <c r="B21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>210</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>706</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>658</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>698</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="4">
+        <v>5</v>
+      </c>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="4">
+        <v>4</v>
+      </c>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>349</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>88</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>730</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>329</v>
+      </c>
+      <c r="B30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>135</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>636</v>
+      </c>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="15">
+        <v>69</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C33" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>297</v>
+      </c>
+      <c r="B34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="15">
+        <v>341</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>138</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>139</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>886</v>
+      </c>
+      <c r="B38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>140</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="C40" s="15">
+        <v>2</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>600</v>
+      </c>
+      <c r="B41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>948</v>
+      </c>
+      <c r="B42" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="15">
+        <v>611</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="15">
+        <v>516</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>56</v>
+      </c>
+      <c r="B45" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="9"/>
+      <c r="B46" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="9">
+        <v>1</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>33</v>
+      </c>
+      <c r="B47" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>62</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>416</v>
+      </c>
+      <c r="B49" t="s">
+        <v>75</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>79</v>
+      </c>
+      <c r="B50" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D46" r:id="rId1" xr:uid="{8A9F392D-9128-DC42-ACC2-1A860DFDFC68}"/>
+    <hyperlink ref="D31" r:id="rId2" xr:uid="{9A66830E-AAAE-024B-AAB6-30C9AFBC50ED}"/>
+    <hyperlink ref="D36" r:id="rId3" xr:uid="{53FF1B4E-F350-A649-AFB3-7B687B6A8B72}"/>
+    <hyperlink ref="D37" r:id="rId4" xr:uid="{7EC6CD36-B39C-724B-ACF2-9D12E5D90BCA}"/>
+    <hyperlink ref="D40" r:id="rId5" xr:uid="{8BEC1291-82FA-8C45-A572-D6F06FA568C2}"/>
+    <hyperlink ref="D6" r:id="rId6" xr:uid="{77046BE2-AEF2-3346-A2AA-5A45A3B9382D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6A42AC-6C29-7E41-9C84-E5ED64CCDD94}">
+  <dimension ref="A1:G33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="106.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>164</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C10" r:id="rId1" xr:uid="{B880D39A-EB29-3B45-9D2E-C674DD1FEE92}"/>
+    <hyperlink ref="D10" r:id="rId2" xr:uid="{7A6C955A-C9CB-D94E-9E47-1DFC63B4A29F}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{CA4C8AD1-0DAF-1A43-A4AD-1D680D5EAA90}"/>
+    <hyperlink ref="C11" r:id="rId4" xr:uid="{607FD3F5-3481-2246-AA80-CADADE3D14E8}"/>
+    <hyperlink ref="C3" r:id="rId5" xr:uid="{D3CDFB96-9B44-B04D-A3A0-2F2823EAAE0C}"/>
+    <hyperlink ref="C15" r:id="rId6" xr:uid="{88AFD75B-027F-8748-884F-1743ABEE3E38}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{157BEC7A-C7BA-3E40-9B5F-842A1E9241EB}"/>
+    <hyperlink ref="C7" r:id="rId8" xr:uid="{B149A8E5-D207-0042-9256-C5A6C5B35876}"/>
+    <hyperlink ref="C6" r:id="rId9" xr:uid="{F394E03C-7A35-014C-BB43-19BC16808AC8}"/>
+    <hyperlink ref="A2" r:id="rId10" xr:uid="{23CD15E4-7ED0-6047-B129-3A0760268310}"/>
+    <hyperlink ref="E7" r:id="rId11" xr:uid="{58902E77-12BA-A641-B87A-C3FE956EA864}"/>
+    <hyperlink ref="F7" r:id="rId12" xr:uid="{7CA69986-1E40-2847-BA5B-4CB2A9775547}"/>
+    <hyperlink ref="C12" r:id="rId13" xr:uid="{0CCB0530-505D-8C4A-BF7F-A31CF5865B75}"/>
+    <hyperlink ref="D12" r:id="rId14" xr:uid="{8A8F7DC6-6899-274A-B7CE-81953503BE37}"/>
+    <hyperlink ref="C18" r:id="rId15" xr:uid="{DBA04197-3E7C-2C43-8C01-5771670E8E64}"/>
+    <hyperlink ref="C9" r:id="rId16" xr:uid="{C734A73C-01E4-A641-A26C-117257071656}"/>
+    <hyperlink ref="G7" r:id="rId17" xr:uid="{359C56EC-0100-3641-97D0-AA489B0FF678}"/>
+    <hyperlink ref="D7" r:id="rId18" xr:uid="{651935B8-6502-184B-A654-F6212FDC1D25}"/>
+    <hyperlink ref="D6" r:id="rId19" xr:uid="{B811D1D3-D0AA-724E-BE4A-DB5D5B6B141F}"/>
+    <hyperlink ref="D4" r:id="rId20" xr:uid="{6F84FCFD-211A-2142-B23B-9D18D497BB84}"/>
+    <hyperlink ref="D8" r:id="rId21" xr:uid="{A042FC4C-48DA-334A-9542-0DFF40D9534B}"/>
+    <hyperlink ref="D11" r:id="rId22" xr:uid="{6AA3F7C1-09FA-E845-B052-72B5BC0CAF20}"/>
+    <hyperlink ref="E4" r:id="rId23" xr:uid="{7C473629-D286-7B42-A6F3-230D114A6C76}"/>
+    <hyperlink ref="D3" r:id="rId24" xr:uid="{9DA2E75F-1BD4-C040-9687-E7E99AC662E9}"/>
+    <hyperlink ref="E3" r:id="rId25" xr:uid="{0BEB307F-A330-0E42-8A85-6D4D73C50D25}"/>
+    <hyperlink ref="D9" r:id="rId26" xr:uid="{D43B32D6-198A-0F42-95FB-CCAD5F11245C}"/>
+    <hyperlink ref="E9" r:id="rId27" xr:uid="{E17F405A-61B7-D64B-AD0F-1A6E19EF49ED}"/>
+    <hyperlink ref="F3" r:id="rId28" xr:uid="{B3BEC97D-BD89-E844-8FF3-FF0AFD134B2C}"/>
+    <hyperlink ref="G3" r:id="rId29" xr:uid="{C848AB00-7352-134F-8747-A8A91A531993}"/>
+    <hyperlink ref="C14" r:id="rId30" xr:uid="{AAB73914-D0C8-EA46-A6B6-37179E15145B}"/>
+    <hyperlink ref="D14" r:id="rId31" xr:uid="{023E1972-7ED6-C248-B2F3-1DBB30AB6C73}"/>
+    <hyperlink ref="E14" r:id="rId32" xr:uid="{48A6B061-7726-6448-AB2F-40FE1FDA5632}"/>
+    <hyperlink ref="E12" r:id="rId33" xr:uid="{59634B0D-6DAC-B940-855A-A516300405B9}"/>
+    <hyperlink ref="D15" r:id="rId34" xr:uid="{DF0CBD99-F9F3-E64A-8918-9EC7FCDE7CA0}"/>
+    <hyperlink ref="A24" r:id="rId35" xr:uid="{4F1AD498-CEC4-6D4E-A854-F9049B60CAD8}"/>
+    <hyperlink ref="A25" r:id="rId36" xr:uid="{0DFFCD5D-96F3-B045-A11E-8D3CA2FE5C38}"/>
+    <hyperlink ref="A26" r:id="rId37" xr:uid="{5F7FAB92-53CB-C443-BD1B-9A10B0B18CBD}"/>
+    <hyperlink ref="C5" r:id="rId38" xr:uid="{48428E0C-5987-2C4C-9340-BE48F5FB8529}"/>
+    <hyperlink ref="F4" r:id="rId39" xr:uid="{83F49E4B-3CB6-0340-B4A9-29A361F603D5}"/>
+    <hyperlink ref="A23" r:id="rId40" xr:uid="{05C2B388-A06A-984C-9F6F-08D064C364BA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13919B8-F934-B64B-811A-4EC5AB312C98}">
   <dimension ref="A1:D87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -899,13 +1993,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1840,252 +2934,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6A42AC-6C29-7E41-9C84-E5ED64CCDD94}">
-  <dimension ref="A1:G20"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="52.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B3">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B4">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B7">
-        <v>14</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B8">
-        <v>8</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>109</v>
-      </c>
-      <c r="B9">
-        <v>5</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>111</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>112</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>123</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>113</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>115</v>
-      </c>
-      <c r="B14">
-        <v>6</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>116</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>117</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>118</v>
-      </c>
-      <c r="B17">
-        <v>3</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>119</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>121</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>125</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1" xr:uid="{B880D39A-EB29-3B45-9D2E-C674DD1FEE92}"/>
-    <hyperlink ref="D6" r:id="rId2" xr:uid="{7A6C955A-C9CB-D94E-9E47-1DFC63B4A29F}"/>
-    <hyperlink ref="C7" r:id="rId3" xr:uid="{CA4C8AD1-0DAF-1A43-A4AD-1D680D5EAA90}"/>
-    <hyperlink ref="C8" r:id="rId4" xr:uid="{607FD3F5-3481-2246-AA80-CADADE3D14E8}"/>
-    <hyperlink ref="C9" r:id="rId5" xr:uid="{D3CDFB96-9B44-B04D-A3A0-2F2823EAAE0C}"/>
-    <hyperlink ref="C13" r:id="rId6" xr:uid="{88AFD75B-027F-8748-884F-1743ABEE3E38}"/>
-    <hyperlink ref="C3" r:id="rId7" xr:uid="{157BEC7A-C7BA-3E40-9B5F-842A1E9241EB}"/>
-    <hyperlink ref="C4" r:id="rId8" xr:uid="{B149A8E5-D207-0042-9256-C5A6C5B35876}"/>
-    <hyperlink ref="C14" r:id="rId9" xr:uid="{F394E03C-7A35-014C-BB43-19BC16808AC8}"/>
-    <hyperlink ref="A2" r:id="rId10" xr:uid="{23CD15E4-7ED0-6047-B129-3A0760268310}"/>
-    <hyperlink ref="E4" r:id="rId11" xr:uid="{651935B8-6502-184B-A654-F6212FDC1D25}"/>
-    <hyperlink ref="F4" r:id="rId12" xr:uid="{58902E77-12BA-A641-B87A-C3FE956EA864}"/>
-    <hyperlink ref="G4" r:id="rId13" xr:uid="{7CA69986-1E40-2847-BA5B-4CB2A9775547}"/>
-    <hyperlink ref="C10" r:id="rId14" xr:uid="{0CCB0530-505D-8C4A-BF7F-A31CF5865B75}"/>
-    <hyperlink ref="D10" r:id="rId15" xr:uid="{8A8F7DC6-6899-274A-B7CE-81953503BE37}"/>
-    <hyperlink ref="C17" r:id="rId16" xr:uid="{DBA04197-3E7C-2C43-8C01-5771670E8E64}"/>
-    <hyperlink ref="C5" r:id="rId17" xr:uid="{C734A73C-01E4-A641-A26C-117257071656}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/company/linkedin/linkedin高频.xlsx
+++ b/company/linkedin/linkedin高频.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bozhou/Dropbox/interview/company/linkedin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B45321-AD06-D84D-BF4D-52BBB000BA35}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1C4D82-354C-2B4E-90C4-E563F08C1A8D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16540" yWindow="3300" windowWidth="15780" windowHeight="14180" xr2:uid="{04ABC891-5ECD-B14B-BBD8-A93D32370AA1}"/>
+    <workbookView xWindow="72420" yWindow="7240" windowWidth="15780" windowHeight="14180" activeTab="2" xr2:uid="{04ABC891-5ECD-B14B-BBD8-A93D32370AA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Onsite" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="178">
   <si>
     <t>Leetcode number</t>
   </si>
@@ -449,12 +449,6 @@
     <t>https://www.1point3acres.com/bbs/thread-527707-1-1.html</t>
   </si>
   <si>
-    <t>binary tree with dash</t>
-  </si>
-  <si>
-    <t>rain and mountain</t>
-  </si>
-  <si>
     <t>Reservoir Sampling</t>
   </si>
   <si>
@@ -564,13 +558,22 @@
   </si>
   <si>
     <t>https://www.infoq.cn/article/kafka-analysis-part-7/</t>
+  </si>
+  <si>
+    <t>PAY ATTENSION</t>
+  </si>
+  <si>
+    <t>Recover a Tree From Preorder Traversal</t>
+  </si>
+  <si>
+    <t>rain and mountain (simple version of Swim in Rising Water)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -652,6 +655,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -674,7 +708,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -699,6 +733,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1016,14 +1054,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F891AA6-DAA6-234A-A229-4D5ADB569317}">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -1075,7 +1113,7 @@
         <v>261</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C5" s="13">
         <v>1</v>
@@ -1086,13 +1124,13 @@
         <v>160</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C6" s="15">
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1118,7 +1156,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1303,17 +1341,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
+    <row r="25" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="18">
         <v>698</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="18">
         <v>5</v>
       </c>
-      <c r="D25" s="4"/>
+      <c r="D25" s="18" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
@@ -1349,14 +1389,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29">
+    <row r="29" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
         <v>730</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1426,20 +1466,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
-        <v>138</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36" s="2" t="s">
+    <row r="36" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="20">
+        <v>1028</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="C36" s="20">
+        <v>1</v>
+      </c>
+      <c r="D36" s="21" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>778</v>
+      </c>
       <c r="B37" t="s">
-        <v>139</v>
+        <v>177</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -1461,7 +1507,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -1469,13 +1515,13 @@
     </row>
     <row r="40" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C40" s="15">
         <v>2</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -1583,7 +1629,10 @@
         <v>79</v>
       </c>
       <c r="B50" t="s">
-        <v>143</v>
+        <v>141</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1604,7 +1653,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1631,7 +1680,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B3">
         <v>6</v>
@@ -1640,16 +1689,16 @@
         <v>108</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1663,24 +1712,24 @@
         <v>106</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -1696,12 +1745,12 @@
         <v>122</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -1719,7 +1768,7 @@
         <v>126</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1733,7 +1782,7 @@
         <v>117</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1747,10 +1796,10 @@
         <v>132</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1778,7 +1827,7 @@
         <v>107</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1795,12 +1844,12 @@
         <v>128</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1814,13 +1863,13 @@
         <v>2</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -1834,7 +1883,7 @@
         <v>111</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1890,32 +1939,32 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -1969,7 +2018,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13919B8-F934-B64B-811A-4EC5AB312C98}">
   <dimension ref="A1:D87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>

--- a/company/linkedin/linkedin高频.xlsx
+++ b/company/linkedin/linkedin高频.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bozhou/Dropbox/interview/company/linkedin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1C4D82-354C-2B4E-90C4-E563F08C1A8D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E30BD2-D436-FC46-B46C-AA2C4B32E4DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="72420" yWindow="7240" windowWidth="15780" windowHeight="14180" activeTab="2" xr2:uid="{04ABC891-5ECD-B14B-BBD8-A93D32370AA1}"/>
+    <workbookView xWindow="13220" yWindow="460" windowWidth="12380" windowHeight="13760" activeTab="1" xr2:uid="{04ABC891-5ECD-B14B-BBD8-A93D32370AA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Onsite" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="180">
   <si>
     <t>Leetcode number</t>
   </si>
@@ -567,13 +567,19 @@
   </si>
   <si>
     <t>rain and mountain (simple version of Swim in Rising Water)</t>
+  </si>
+  <si>
+    <t>Spell Checker</t>
+  </si>
+  <si>
+    <t>Design Calculator</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -686,6 +692,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -708,7 +721,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -737,6 +750,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1052,10 +1067,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F891AA6-DAA6-234A-A229-4D5ADB569317}">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1075,574 +1090,609 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>373</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="8">
+        <v>4</v>
+      </c>
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="8">
+        <v>366</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="8">
+        <v>15</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>377</v>
+      </c>
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8">
+        <v>716</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="15">
+        <v>254</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8">
+        <v>57</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="13">
+        <v>100</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="13">
+        <v>2</v>
+      </c>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="8">
+        <v>11</v>
+      </c>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="22">
+        <v>277</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B13" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C13" s="8">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8">
+    <row r="14" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="8">
         <v>156</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B14" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C14" s="8">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="15">
+    <row r="15" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="15">
         <v>236</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B15" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C15" s="15">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="13">
+    <row r="16" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="13">
         <v>261</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B16" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="C5" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="15">
+      <c r="C16" s="13">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="15">
         <v>160</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B17" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C17" s="15">
         <v>5</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
-        <v>366</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="8">
-        <v>13</v>
-      </c>
-      <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="8">
-        <v>8</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="D17" s="8"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>68</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B18" t="s">
         <v>71</v>
       </c>
-      <c r="C9">
+      <c r="C18">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>377</v>
-      </c>
-      <c r="B10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="8">
-        <v>716</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="8">
+    <row r="19" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="13">
+        <v>3</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C19" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="15">
+        <v>72</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="15">
+        <v>3</v>
+      </c>
+      <c r="D20" s="8"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="8">
+        <v>432</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="8">
+        <v>9</v>
+      </c>
+      <c r="D21" s="14"/>
+    </row>
+    <row r="22" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
+        <v>149</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="15">
+        <v>200</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>384</v>
+      </c>
+      <c r="B24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>210</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C25" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>706</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>658</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="18">
+        <v>698</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="18">
+        <v>5</v>
+      </c>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="13">
-        <v>3</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="C12" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="15">
-        <v>254</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="15" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="15">
-        <v>72</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="8">
-        <v>10</v>
-      </c>
-      <c r="D15" s="8"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" s="8">
-        <v>3</v>
-      </c>
-      <c r="D16" s="8"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="8">
-        <v>432</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="8">
-        <v>9</v>
-      </c>
-      <c r="D17" s="8"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="13">
-        <v>100</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="13">
-        <v>1</v>
-      </c>
-      <c r="D18" s="14"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="6">
-        <v>149</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="6">
-        <v>7</v>
-      </c>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="15">
-        <v>200</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="15">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>384</v>
-      </c>
-      <c r="B21" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>210</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C22" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>706</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>658</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="C29" s="4">
         <v>4</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="18">
-        <v>698</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="18">
-        <v>5</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="4">
-        <v>4</v>
-      </c>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>349</v>
-      </c>
-      <c r="B27" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>88</v>
-      </c>
-      <c r="B28" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>730</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="3">
-        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
+        <v>349</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>88</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>730</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33">
         <v>329</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B33" t="s">
         <v>35</v>
       </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
         <v>135</v>
       </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32">
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35">
         <v>636</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B35" t="s">
         <v>40</v>
       </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="15">
+      <c r="C35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="15">
         <v>69</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B36" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="C33" s="15">
+      <c r="C36" s="15">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34">
+    <row r="37" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37">
         <v>297</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B37" t="s">
         <v>43</v>
       </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="15">
+      <c r="C37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="15">
         <v>341</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B38" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="15">
+      <c r="C38" s="15">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="20">
+      <c r="D38" s="21" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="20">
         <v>1028</v>
       </c>
-      <c r="B36" s="20" t="s">
+      <c r="B39" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="C36" s="20">
-        <v>1</v>
-      </c>
-      <c r="D36" s="21" t="s">
+      <c r="C39" s="20">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40">
         <v>778</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B40" t="s">
         <v>177</v>
       </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>886</v>
-      </c>
-      <c r="B38" t="s">
-        <v>46</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
-        <v>138</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="C40" s="15">
-        <v>2</v>
-      </c>
-      <c r="D40" s="17" t="s">
-        <v>140</v>
+      <c r="C40">
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
+        <v>886</v>
+      </c>
+      <c r="B41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42"/>
+      <c r="B42" t="s">
+        <v>138</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="15"/>
+      <c r="B43" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="C43" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44">
         <v>600</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B44" t="s">
         <v>48</v>
       </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42">
+      <c r="C44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45">
         <v>948</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B45" t="s">
         <v>49</v>
       </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="15">
+      <c r="C45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="15">
         <v>611</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="B46" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C43" s="15">
+      <c r="C46" s="15">
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="15">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="15">
         <v>516</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="B47" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C44" s="15">
+      <c r="C47" s="15">
         <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>56</v>
-      </c>
-      <c r="B45" t="s">
-        <v>31</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="9"/>
-      <c r="B46" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C46" s="9">
-        <v>1</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>33</v>
-      </c>
-      <c r="B47" t="s">
-        <v>55</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B48" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
+      <c r="D48" s="11" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>416</v>
-      </c>
-      <c r="B49" t="s">
-        <v>75</v>
-      </c>
-      <c r="C49">
+      <c r="A49" s="9"/>
+      <c r="B49" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
+        <v>33</v>
+      </c>
+      <c r="B50" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>62</v>
+      </c>
+      <c r="B51" t="s">
+        <v>73</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>416</v>
+      </c>
+      <c r="B52" t="s">
+        <v>75</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53">
         <v>79</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B53" t="s">
         <v>141</v>
       </c>
-      <c r="C50">
+      <c r="C53">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D46" r:id="rId1" xr:uid="{8A9F392D-9128-DC42-ACC2-1A860DFDFC68}"/>
-    <hyperlink ref="D31" r:id="rId2" xr:uid="{9A66830E-AAAE-024B-AAB6-30C9AFBC50ED}"/>
-    <hyperlink ref="D36" r:id="rId3" xr:uid="{53FF1B4E-F350-A649-AFB3-7B687B6A8B72}"/>
-    <hyperlink ref="D37" r:id="rId4" xr:uid="{7EC6CD36-B39C-724B-ACF2-9D12E5D90BCA}"/>
-    <hyperlink ref="D40" r:id="rId5" xr:uid="{8BEC1291-82FA-8C45-A572-D6F06FA568C2}"/>
-    <hyperlink ref="D6" r:id="rId6" xr:uid="{77046BE2-AEF2-3346-A2AA-5A45A3B9382D}"/>
+    <hyperlink ref="D48" r:id="rId1" xr:uid="{8A9F392D-9128-DC42-ACC2-1A860DFDFC68}"/>
+    <hyperlink ref="D33" r:id="rId2" xr:uid="{9A66830E-AAAE-024B-AAB6-30C9AFBC50ED}"/>
+    <hyperlink ref="D38" r:id="rId3" xr:uid="{53FF1B4E-F350-A649-AFB3-7B687B6A8B72}"/>
+    <hyperlink ref="D39" r:id="rId4" xr:uid="{7EC6CD36-B39C-724B-ACF2-9D12E5D90BCA}"/>
+    <hyperlink ref="D42" r:id="rId5" xr:uid="{8BEC1291-82FA-8C45-A572-D6F06FA568C2}"/>
+    <hyperlink ref="D16" r:id="rId6" xr:uid="{77046BE2-AEF2-3346-A2AA-5A45A3B9382D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1650,10 +1700,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6A42AC-6C29-7E41-9C84-E5ED64CCDD94}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1679,336 +1729,352 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>154</v>
+      <c r="A3" s="23" t="s">
+        <v>178</v>
       </c>
       <c r="B3">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>155</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>103</v>
+      <c r="A4" s="23" t="s">
+        <v>179</v>
       </c>
       <c r="B4">
-        <v>16</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>173</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>112</v>
+        <v>108</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>103</v>
       </c>
       <c r="B6">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>153</v>
+        <v>125</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>101</v>
+      <c r="A10" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>105</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B11">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>148</v>
+      <c r="A13" s="8" t="s">
+        <v>104</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>161</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="B16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C17" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B18">
-        <v>3</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B19">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>118</v>
       </c>
-      <c r="B20">
+      <c r="B22">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>121</v>
       </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>162</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C10" r:id="rId1" xr:uid="{B880D39A-EB29-3B45-9D2E-C674DD1FEE92}"/>
-    <hyperlink ref="D10" r:id="rId2" xr:uid="{7A6C955A-C9CB-D94E-9E47-1DFC63B4A29F}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{CA4C8AD1-0DAF-1A43-A4AD-1D680D5EAA90}"/>
-    <hyperlink ref="C11" r:id="rId4" xr:uid="{607FD3F5-3481-2246-AA80-CADADE3D14E8}"/>
-    <hyperlink ref="C3" r:id="rId5" xr:uid="{D3CDFB96-9B44-B04D-A3A0-2F2823EAAE0C}"/>
-    <hyperlink ref="C15" r:id="rId6" xr:uid="{88AFD75B-027F-8748-884F-1743ABEE3E38}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{157BEC7A-C7BA-3E40-9B5F-842A1E9241EB}"/>
-    <hyperlink ref="C7" r:id="rId8" xr:uid="{B149A8E5-D207-0042-9256-C5A6C5B35876}"/>
-    <hyperlink ref="C6" r:id="rId9" xr:uid="{F394E03C-7A35-014C-BB43-19BC16808AC8}"/>
+    <hyperlink ref="C12" r:id="rId1" xr:uid="{B880D39A-EB29-3B45-9D2E-C674DD1FEE92}"/>
+    <hyperlink ref="D12" r:id="rId2" xr:uid="{7A6C955A-C9CB-D94E-9E47-1DFC63B4A29F}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{CA4C8AD1-0DAF-1A43-A4AD-1D680D5EAA90}"/>
+    <hyperlink ref="C13" r:id="rId4" xr:uid="{607FD3F5-3481-2246-AA80-CADADE3D14E8}"/>
+    <hyperlink ref="C5" r:id="rId5" xr:uid="{D3CDFB96-9B44-B04D-A3A0-2F2823EAAE0C}"/>
+    <hyperlink ref="C17" r:id="rId6" xr:uid="{88AFD75B-027F-8748-884F-1743ABEE3E38}"/>
+    <hyperlink ref="C10" r:id="rId7" xr:uid="{157BEC7A-C7BA-3E40-9B5F-842A1E9241EB}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{B149A8E5-D207-0042-9256-C5A6C5B35876}"/>
+    <hyperlink ref="C8" r:id="rId9" xr:uid="{F394E03C-7A35-014C-BB43-19BC16808AC8}"/>
     <hyperlink ref="A2" r:id="rId10" xr:uid="{23CD15E4-7ED0-6047-B129-3A0760268310}"/>
-    <hyperlink ref="E7" r:id="rId11" xr:uid="{58902E77-12BA-A641-B87A-C3FE956EA864}"/>
-    <hyperlink ref="F7" r:id="rId12" xr:uid="{7CA69986-1E40-2847-BA5B-4CB2A9775547}"/>
-    <hyperlink ref="C12" r:id="rId13" xr:uid="{0CCB0530-505D-8C4A-BF7F-A31CF5865B75}"/>
-    <hyperlink ref="D12" r:id="rId14" xr:uid="{8A8F7DC6-6899-274A-B7CE-81953503BE37}"/>
-    <hyperlink ref="C18" r:id="rId15" xr:uid="{DBA04197-3E7C-2C43-8C01-5771670E8E64}"/>
-    <hyperlink ref="C9" r:id="rId16" xr:uid="{C734A73C-01E4-A641-A26C-117257071656}"/>
-    <hyperlink ref="G7" r:id="rId17" xr:uid="{359C56EC-0100-3641-97D0-AA489B0FF678}"/>
-    <hyperlink ref="D7" r:id="rId18" xr:uid="{651935B8-6502-184B-A654-F6212FDC1D25}"/>
-    <hyperlink ref="D6" r:id="rId19" xr:uid="{B811D1D3-D0AA-724E-BE4A-DB5D5B6B141F}"/>
-    <hyperlink ref="D4" r:id="rId20" xr:uid="{6F84FCFD-211A-2142-B23B-9D18D497BB84}"/>
-    <hyperlink ref="D8" r:id="rId21" xr:uid="{A042FC4C-48DA-334A-9542-0DFF40D9534B}"/>
-    <hyperlink ref="D11" r:id="rId22" xr:uid="{6AA3F7C1-09FA-E845-B052-72B5BC0CAF20}"/>
-    <hyperlink ref="E4" r:id="rId23" xr:uid="{7C473629-D286-7B42-A6F3-230D114A6C76}"/>
-    <hyperlink ref="D3" r:id="rId24" xr:uid="{9DA2E75F-1BD4-C040-9687-E7E99AC662E9}"/>
-    <hyperlink ref="E3" r:id="rId25" xr:uid="{0BEB307F-A330-0E42-8A85-6D4D73C50D25}"/>
-    <hyperlink ref="D9" r:id="rId26" xr:uid="{D43B32D6-198A-0F42-95FB-CCAD5F11245C}"/>
-    <hyperlink ref="E9" r:id="rId27" xr:uid="{E17F405A-61B7-D64B-AD0F-1A6E19EF49ED}"/>
-    <hyperlink ref="F3" r:id="rId28" xr:uid="{B3BEC97D-BD89-E844-8FF3-FF0AFD134B2C}"/>
-    <hyperlink ref="G3" r:id="rId29" xr:uid="{C848AB00-7352-134F-8747-A8A91A531993}"/>
-    <hyperlink ref="C14" r:id="rId30" xr:uid="{AAB73914-D0C8-EA46-A6B6-37179E15145B}"/>
-    <hyperlink ref="D14" r:id="rId31" xr:uid="{023E1972-7ED6-C248-B2F3-1DBB30AB6C73}"/>
-    <hyperlink ref="E14" r:id="rId32" xr:uid="{48A6B061-7726-6448-AB2F-40FE1FDA5632}"/>
-    <hyperlink ref="E12" r:id="rId33" xr:uid="{59634B0D-6DAC-B940-855A-A516300405B9}"/>
-    <hyperlink ref="D15" r:id="rId34" xr:uid="{DF0CBD99-F9F3-E64A-8918-9EC7FCDE7CA0}"/>
-    <hyperlink ref="A24" r:id="rId35" xr:uid="{4F1AD498-CEC4-6D4E-A854-F9049B60CAD8}"/>
-    <hyperlink ref="A25" r:id="rId36" xr:uid="{0DFFCD5D-96F3-B045-A11E-8D3CA2FE5C38}"/>
-    <hyperlink ref="A26" r:id="rId37" xr:uid="{5F7FAB92-53CB-C443-BD1B-9A10B0B18CBD}"/>
-    <hyperlink ref="C5" r:id="rId38" xr:uid="{48428E0C-5987-2C4C-9340-BE48F5FB8529}"/>
-    <hyperlink ref="F4" r:id="rId39" xr:uid="{83F49E4B-3CB6-0340-B4A9-29A361F603D5}"/>
-    <hyperlink ref="A23" r:id="rId40" xr:uid="{05C2B388-A06A-984C-9F6F-08D064C364BA}"/>
+    <hyperlink ref="E9" r:id="rId11" xr:uid="{58902E77-12BA-A641-B87A-C3FE956EA864}"/>
+    <hyperlink ref="F9" r:id="rId12" xr:uid="{7CA69986-1E40-2847-BA5B-4CB2A9775547}"/>
+    <hyperlink ref="C14" r:id="rId13" xr:uid="{0CCB0530-505D-8C4A-BF7F-A31CF5865B75}"/>
+    <hyperlink ref="D14" r:id="rId14" xr:uid="{8A8F7DC6-6899-274A-B7CE-81953503BE37}"/>
+    <hyperlink ref="C20" r:id="rId15" xr:uid="{DBA04197-3E7C-2C43-8C01-5771670E8E64}"/>
+    <hyperlink ref="C11" r:id="rId16" xr:uid="{C734A73C-01E4-A641-A26C-117257071656}"/>
+    <hyperlink ref="G9" r:id="rId17" xr:uid="{359C56EC-0100-3641-97D0-AA489B0FF678}"/>
+    <hyperlink ref="D9" r:id="rId18" xr:uid="{651935B8-6502-184B-A654-F6212FDC1D25}"/>
+    <hyperlink ref="D8" r:id="rId19" xr:uid="{B811D1D3-D0AA-724E-BE4A-DB5D5B6B141F}"/>
+    <hyperlink ref="D6" r:id="rId20" xr:uid="{6F84FCFD-211A-2142-B23B-9D18D497BB84}"/>
+    <hyperlink ref="D10" r:id="rId21" xr:uid="{A042FC4C-48DA-334A-9542-0DFF40D9534B}"/>
+    <hyperlink ref="D13" r:id="rId22" xr:uid="{6AA3F7C1-09FA-E845-B052-72B5BC0CAF20}"/>
+    <hyperlink ref="E6" r:id="rId23" xr:uid="{7C473629-D286-7B42-A6F3-230D114A6C76}"/>
+    <hyperlink ref="D5" r:id="rId24" xr:uid="{9DA2E75F-1BD4-C040-9687-E7E99AC662E9}"/>
+    <hyperlink ref="E5" r:id="rId25" xr:uid="{0BEB307F-A330-0E42-8A85-6D4D73C50D25}"/>
+    <hyperlink ref="D11" r:id="rId26" xr:uid="{D43B32D6-198A-0F42-95FB-CCAD5F11245C}"/>
+    <hyperlink ref="E11" r:id="rId27" xr:uid="{E17F405A-61B7-D64B-AD0F-1A6E19EF49ED}"/>
+    <hyperlink ref="F5" r:id="rId28" xr:uid="{B3BEC97D-BD89-E844-8FF3-FF0AFD134B2C}"/>
+    <hyperlink ref="G5" r:id="rId29" xr:uid="{C848AB00-7352-134F-8747-A8A91A531993}"/>
+    <hyperlink ref="C16" r:id="rId30" xr:uid="{AAB73914-D0C8-EA46-A6B6-37179E15145B}"/>
+    <hyperlink ref="D16" r:id="rId31" xr:uid="{023E1972-7ED6-C248-B2F3-1DBB30AB6C73}"/>
+    <hyperlink ref="E16" r:id="rId32" xr:uid="{48A6B061-7726-6448-AB2F-40FE1FDA5632}"/>
+    <hyperlink ref="E14" r:id="rId33" xr:uid="{59634B0D-6DAC-B940-855A-A516300405B9}"/>
+    <hyperlink ref="D17" r:id="rId34" xr:uid="{DF0CBD99-F9F3-E64A-8918-9EC7FCDE7CA0}"/>
+    <hyperlink ref="A26" r:id="rId35" xr:uid="{4F1AD498-CEC4-6D4E-A854-F9049B60CAD8}"/>
+    <hyperlink ref="A27" r:id="rId36" xr:uid="{0DFFCD5D-96F3-B045-A11E-8D3CA2FE5C38}"/>
+    <hyperlink ref="A28" r:id="rId37" xr:uid="{5F7FAB92-53CB-C443-BD1B-9A10B0B18CBD}"/>
+    <hyperlink ref="C7" r:id="rId38" xr:uid="{48428E0C-5987-2C4C-9340-BE48F5FB8529}"/>
+    <hyperlink ref="F6" r:id="rId39" xr:uid="{83F49E4B-3CB6-0340-B4A9-29A361F603D5}"/>
+    <hyperlink ref="A25" r:id="rId40" xr:uid="{05C2B388-A06A-984C-9F6F-08D064C364BA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2018,8 +2084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13919B8-F934-B64B-811A-4EC5AB312C98}">
   <dimension ref="A1:D87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D92" sqref="D92"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2475,15 +2541,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42">
+    <row r="42" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="8">
         <v>57</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C42">
-        <v>3</v>
+      <c r="C42" s="8">
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">

--- a/company/linkedin/linkedin高频.xlsx
+++ b/company/linkedin/linkedin高频.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bozhou/Dropbox/interview/company/linkedin/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\interview\company\linkedin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E30BD2-D436-FC46-B46C-AA2C4B32E4DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E431E22-0E76-462D-A591-F07BF7A9AF20}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13220" yWindow="460" windowWidth="12380" windowHeight="13760" activeTab="1" xr2:uid="{04ABC891-5ECD-B14B-BBD8-A93D32370AA1}"/>
+    <workbookView xWindow="-14910" yWindow="330" windowWidth="14670" windowHeight="15045" activeTab="2" xr2:uid="{04ABC891-5ECD-B14B-BBD8-A93D32370AA1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Onsite" sheetId="3" r:id="rId1"/>
-    <sheet name="Design" sheetId="2" r:id="rId2"/>
-    <sheet name="Algorithm" sheetId="1" r:id="rId3"/>
+    <sheet name="Infra" sheetId="4" r:id="rId1"/>
+    <sheet name="Onsite" sheetId="3" r:id="rId2"/>
+    <sheet name="Design" sheetId="2" r:id="rId3"/>
+    <sheet name="Algorithm" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="212">
   <si>
     <t>Leetcode number</t>
   </si>
@@ -573,6 +574,102 @@
   </si>
   <si>
     <t>Design Calculator</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kx-XDoPjoHw</t>
+  </si>
+  <si>
+    <t>设计一个meeting invite的系统</t>
+  </si>
+  <si>
+    <t>https://engineering.linkedin.com/real-time-distributed-graph/using-set-cover-algorithm-optimize-query-latency-large-scale-distributed</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/xlgen157387/article/details/79085901</t>
+  </si>
+  <si>
+    <t>Top k</t>
+  </si>
+  <si>
+    <t>stream getAverage()</t>
+  </si>
+  <si>
+    <t>delayed task scheduler</t>
+  </si>
+  <si>
+    <t>tiny url</t>
+  </si>
+  <si>
+    <t>blocking queue</t>
+  </si>
+  <si>
+    <t>https://www.1point3acres.com/bbs/thread-545174-1-1.html</t>
+  </si>
+  <si>
+    <t>DataInputStream column based db</t>
+  </si>
+  <si>
+    <t>key-value store (append only file system)</t>
+  </si>
+  <si>
+    <t>https://www.1point3acres.com/bbs/thread-543159-1-1.html</t>
+  </si>
+  <si>
+    <t>design a monitor system (collect metrics)</t>
+  </si>
+  <si>
+    <t>设计一个基于内存的streaming系统</t>
+  </si>
+  <si>
+    <t>https://www.1point3acres.com/bbs/thread-529061-1-1.html</t>
+  </si>
+  <si>
+    <t>inverted index 以及不同的distribution sharding 方法的优劣讨论</t>
+  </si>
+  <si>
+    <t>https://www.1point3acres.com/bbs/thread-515642-1-1.html</t>
+  </si>
+  <si>
+    <t>给定可用内存的 mini Kafka， 重点考察内存中数据怎么存</t>
+  </si>
+  <si>
+    <t>系统设计 设计二级好友三级好友</t>
+  </si>
+  <si>
+    <t>https://www.1point3acres.com/bbs/thread-514016-1-1.html</t>
+  </si>
+  <si>
+    <t>desgn in memory kv store</t>
+  </si>
+  <si>
+    <t>https://www.1point3acres.com/bbs/thread-496507-1-1.html</t>
+  </si>
+  <si>
+    <t>sliding window rate limiter</t>
+  </si>
+  <si>
+    <t>https://www.1point3acres.com/bbs/thread-465815-1-1.html</t>
+  </si>
+  <si>
+    <t>message queue</t>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/jginQ7103zt8I7QtTZwMRQ</t>
+  </si>
+  <si>
+    <t>https://robinhood.engineering/metrics-riemann-93bb94ed2ff2</t>
+  </si>
+  <si>
+    <t>https://engineering.linkedin.com/blog/2019/01/introducing-thirdeye--linkedins-business-wide-monitoring-platfor</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/pulse/metrics-events-collection-ingenico-payment-services-jean-lubatti/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=FU4WlwfS3G0</t>
+  </si>
+  <si>
+    <t>https://wiesen.github.io/post/leveldb-compaction/</t>
   </si>
 </sst>
 </file>
@@ -1066,20 +1163,264 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A305A990-E039-6F44-9372-994830DEB76A}">
+  <dimension ref="A1:I16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B3" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>193</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>194</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>196</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>198</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>199</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>201</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>203</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>205</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{8B1A94FF-3E47-ED4C-BF32-7700088FE315}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{0D020044-A37C-AE4C-A669-10D881562B98}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{08AAEA9F-6E86-8941-AFCE-6A1963AB4CEC}"/>
+    <hyperlink ref="C6" r:id="rId4" xr:uid="{5C941CF5-4D8B-CA46-BF1A-517CDE64FA54}"/>
+    <hyperlink ref="C8" r:id="rId5" xr:uid="{AF0BDE5A-688F-504E-804E-AC0208412742}"/>
+    <hyperlink ref="C9" r:id="rId6" xr:uid="{4ED3AF09-1FDA-7C4C-9A9D-F390FF0CCBDE}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{14C3A5D5-6E7E-6541-AD02-45F5FBB9084C}"/>
+    <hyperlink ref="D9" r:id="rId8" xr:uid="{70504CD4-F5C1-9148-9C48-5DBDD6DBA397}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{2362A548-B48A-124B-925D-AFB280611A2D}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{F1203105-AD7F-8040-9FD9-0491214AE314}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{09FEC528-6F8B-F348-963F-8C63353AFDA3}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{84951FDF-A9D3-C94D-B37A-73C9DFA176E2}"/>
+    <hyperlink ref="C14" r:id="rId13" xr:uid="{E08B1A83-0387-B64D-A52B-F040B84AA29D}"/>
+    <hyperlink ref="C15" r:id="rId14" xr:uid="{AD120179-CCC1-964F-A3D9-BDC607AAADAD}"/>
+    <hyperlink ref="D14" r:id="rId15" xr:uid="{2DF1CF8B-2F38-F445-AF2E-AEB85589D589}"/>
+    <hyperlink ref="E9" r:id="rId16" xr:uid="{1FF52856-BBD5-AC49-97BF-5EB873B2A465}"/>
+    <hyperlink ref="F9" r:id="rId17" xr:uid="{751A2504-548D-3C4C-85DE-30E6E575A174}"/>
+    <hyperlink ref="G9" r:id="rId18" xr:uid="{49C8844B-AF3B-A743-A678-589727C4FE63}"/>
+    <hyperlink ref="H9" r:id="rId19" xr:uid="{63BCA8E8-EC02-6A4F-BE8F-174EF82F4301}"/>
+    <hyperlink ref="E13" r:id="rId20" xr:uid="{D0E0F866-A192-7248-BA3E-F59B87CFCC9A}"/>
+    <hyperlink ref="D15" r:id="rId21" xr:uid="{5359780F-E218-430F-83B0-53502F57C4CD}"/>
+    <hyperlink ref="E14" r:id="rId22" xr:uid="{8697490A-EA7C-45F6-87EA-4839BEBB1E5E}"/>
+    <hyperlink ref="I9" r:id="rId23" xr:uid="{DAD535F8-8774-4D0A-9FD7-D7B51AF6029F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F891AA6-DAA6-234A-A229-4D5ADB569317}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="51.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1090,29 +1431,32 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>87</v>
+    <row r="2" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>716</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="C2" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>373</v>
-      </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>366</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="8">
+        <v>17</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>85</v>
       </c>
@@ -1120,48 +1464,45 @@
         <v>94</v>
       </c>
       <c r="C4" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" s="8"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="8">
-        <v>366</v>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="C5" s="8">
-        <v>15</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>373</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>377</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>57</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>2</v>
       </c>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
-        <v>716</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="8">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>254</v>
       </c>
@@ -1172,7 +1513,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>57</v>
       </c>
@@ -1183,7 +1524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>100</v>
       </c>
@@ -1195,7 +1536,7 @@
       </c>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>86</v>
       </c>
@@ -1207,7 +1548,7 @@
       </c>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
         <v>277</v>
       </c>
@@ -1218,7 +1559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>82</v>
       </c>
@@ -1229,7 +1570,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>156</v>
       </c>
@@ -1240,7 +1581,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>236</v>
       </c>
@@ -1251,7 +1592,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>261</v>
       </c>
@@ -1265,7 +1606,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <v>160</v>
       </c>
@@ -1277,7 +1618,7 @@
       </c>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>68</v>
       </c>
@@ -1288,7 +1629,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>3</v>
       </c>
@@ -1299,7 +1640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>72</v>
       </c>
@@ -1311,7 +1652,7 @@
       </c>
       <c r="D20" s="8"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>432</v>
       </c>
@@ -1323,7 +1664,7 @@
       </c>
       <c r="D21" s="14"/>
     </row>
-    <row r="22" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>149</v>
       </c>
@@ -1334,7 +1675,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>200</v>
       </c>
@@ -1345,7 +1686,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>384</v>
       </c>
@@ -1356,7 +1697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>210</v>
       </c>
@@ -1367,7 +1708,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>706</v>
       </c>
@@ -1378,7 +1719,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>658</v>
       </c>
@@ -1392,7 +1733,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="18">
         <v>698</v>
       </c>
@@ -1404,7 +1745,7 @@
       </c>
       <c r="D28" s="4"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>84</v>
       </c>
@@ -1415,7 +1756,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>349</v>
       </c>
@@ -1426,7 +1767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>88</v>
       </c>
@@ -1437,7 +1778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>730</v>
       </c>
@@ -1448,7 +1789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>329</v>
       </c>
@@ -1462,7 +1803,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>135</v>
       </c>
@@ -1470,7 +1811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>636</v>
       </c>
@@ -1481,7 +1822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="15">
         <v>69</v>
       </c>
@@ -1492,7 +1833,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>297</v>
       </c>
@@ -1503,7 +1844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
         <v>341</v>
       </c>
@@ -1517,7 +1858,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="20">
         <v>1028</v>
       </c>
@@ -1531,7 +1872,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>778</v>
       </c>
@@ -1542,7 +1883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>886</v>
       </c>
@@ -1553,7 +1894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42"/>
       <c r="B42" t="s">
         <v>138</v>
@@ -1565,7 +1906,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="15"/>
       <c r="B43" s="15" t="s">
         <v>139</v>
@@ -1574,7 +1915,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>600</v>
       </c>
@@ -1585,7 +1926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>948</v>
       </c>
@@ -1596,7 +1937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="15">
         <v>611</v>
       </c>
@@ -1607,7 +1948,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="15">
         <v>516</v>
       </c>
@@ -1618,7 +1959,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>56</v>
       </c>
@@ -1632,7 +1973,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
       <c r="B49" s="9" t="s">
         <v>16</v>
@@ -1641,7 +1982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>33</v>
       </c>
@@ -1652,7 +1993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>62</v>
       </c>
@@ -1663,7 +2004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>416</v>
       </c>
@@ -1674,7 +2015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>79</v>
       </c>
@@ -1698,21 +2039,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6A42AC-6C29-7E41-9C84-E5ED64CCDD94}">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="106.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" customWidth="1"/>
+    <col min="1" max="1" width="74.5" customWidth="1"/>
+    <col min="4" max="4" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>96</v>
       </c>
@@ -1723,364 +2064,384 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>154</v>
       </c>
-      <c r="B5">
+      <c r="B7">
         <v>6</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B6">
-        <v>16</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>167</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>112</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>8</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>147</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>6</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>10</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>100</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>4</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>101</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>3</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>8</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>109</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>2</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>148</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>120</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>110</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>113</v>
       </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>114</v>
       </c>
-      <c r="B19">
+      <c r="B20">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>115</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>3</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="D21" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>116</v>
-      </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>118</v>
       </c>
       <c r="B22">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>118</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>121</v>
       </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>162</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C12" r:id="rId1" xr:uid="{B880D39A-EB29-3B45-9D2E-C674DD1FEE92}"/>
-    <hyperlink ref="D12" r:id="rId2" xr:uid="{7A6C955A-C9CB-D94E-9E47-1DFC63B4A29F}"/>
-    <hyperlink ref="C6" r:id="rId3" xr:uid="{CA4C8AD1-0DAF-1A43-A4AD-1D680D5EAA90}"/>
-    <hyperlink ref="C13" r:id="rId4" xr:uid="{607FD3F5-3481-2246-AA80-CADADE3D14E8}"/>
-    <hyperlink ref="C5" r:id="rId5" xr:uid="{D3CDFB96-9B44-B04D-A3A0-2F2823EAAE0C}"/>
-    <hyperlink ref="C17" r:id="rId6" xr:uid="{88AFD75B-027F-8748-884F-1743ABEE3E38}"/>
-    <hyperlink ref="C10" r:id="rId7" xr:uid="{157BEC7A-C7BA-3E40-9B5F-842A1E9241EB}"/>
-    <hyperlink ref="C9" r:id="rId8" xr:uid="{B149A8E5-D207-0042-9256-C5A6C5B35876}"/>
-    <hyperlink ref="C8" r:id="rId9" xr:uid="{F394E03C-7A35-014C-BB43-19BC16808AC8}"/>
+    <hyperlink ref="C13" r:id="rId1" xr:uid="{B880D39A-EB29-3B45-9D2E-C674DD1FEE92}"/>
+    <hyperlink ref="D13" r:id="rId2" xr:uid="{7A6C955A-C9CB-D94E-9E47-1DFC63B4A29F}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{CA4C8AD1-0DAF-1A43-A4AD-1D680D5EAA90}"/>
+    <hyperlink ref="C14" r:id="rId4" xr:uid="{607FD3F5-3481-2246-AA80-CADADE3D14E8}"/>
+    <hyperlink ref="C7" r:id="rId5" xr:uid="{D3CDFB96-9B44-B04D-A3A0-2F2823EAAE0C}"/>
+    <hyperlink ref="C18" r:id="rId6" xr:uid="{88AFD75B-027F-8748-884F-1743ABEE3E38}"/>
+    <hyperlink ref="C11" r:id="rId7" xr:uid="{157BEC7A-C7BA-3E40-9B5F-842A1E9241EB}"/>
+    <hyperlink ref="C10" r:id="rId8" xr:uid="{B149A8E5-D207-0042-9256-C5A6C5B35876}"/>
+    <hyperlink ref="C9" r:id="rId9" xr:uid="{F394E03C-7A35-014C-BB43-19BC16808AC8}"/>
     <hyperlink ref="A2" r:id="rId10" xr:uid="{23CD15E4-7ED0-6047-B129-3A0760268310}"/>
-    <hyperlink ref="E9" r:id="rId11" xr:uid="{58902E77-12BA-A641-B87A-C3FE956EA864}"/>
-    <hyperlink ref="F9" r:id="rId12" xr:uid="{7CA69986-1E40-2847-BA5B-4CB2A9775547}"/>
-    <hyperlink ref="C14" r:id="rId13" xr:uid="{0CCB0530-505D-8C4A-BF7F-A31CF5865B75}"/>
-    <hyperlink ref="D14" r:id="rId14" xr:uid="{8A8F7DC6-6899-274A-B7CE-81953503BE37}"/>
-    <hyperlink ref="C20" r:id="rId15" xr:uid="{DBA04197-3E7C-2C43-8C01-5771670E8E64}"/>
-    <hyperlink ref="C11" r:id="rId16" xr:uid="{C734A73C-01E4-A641-A26C-117257071656}"/>
-    <hyperlink ref="G9" r:id="rId17" xr:uid="{359C56EC-0100-3641-97D0-AA489B0FF678}"/>
-    <hyperlink ref="D9" r:id="rId18" xr:uid="{651935B8-6502-184B-A654-F6212FDC1D25}"/>
-    <hyperlink ref="D8" r:id="rId19" xr:uid="{B811D1D3-D0AA-724E-BE4A-DB5D5B6B141F}"/>
-    <hyperlink ref="D6" r:id="rId20" xr:uid="{6F84FCFD-211A-2142-B23B-9D18D497BB84}"/>
-    <hyperlink ref="D10" r:id="rId21" xr:uid="{A042FC4C-48DA-334A-9542-0DFF40D9534B}"/>
-    <hyperlink ref="D13" r:id="rId22" xr:uid="{6AA3F7C1-09FA-E845-B052-72B5BC0CAF20}"/>
-    <hyperlink ref="E6" r:id="rId23" xr:uid="{7C473629-D286-7B42-A6F3-230D114A6C76}"/>
-    <hyperlink ref="D5" r:id="rId24" xr:uid="{9DA2E75F-1BD4-C040-9687-E7E99AC662E9}"/>
-    <hyperlink ref="E5" r:id="rId25" xr:uid="{0BEB307F-A330-0E42-8A85-6D4D73C50D25}"/>
-    <hyperlink ref="D11" r:id="rId26" xr:uid="{D43B32D6-198A-0F42-95FB-CCAD5F11245C}"/>
-    <hyperlink ref="E11" r:id="rId27" xr:uid="{E17F405A-61B7-D64B-AD0F-1A6E19EF49ED}"/>
-    <hyperlink ref="F5" r:id="rId28" xr:uid="{B3BEC97D-BD89-E844-8FF3-FF0AFD134B2C}"/>
-    <hyperlink ref="G5" r:id="rId29" xr:uid="{C848AB00-7352-134F-8747-A8A91A531993}"/>
-    <hyperlink ref="C16" r:id="rId30" xr:uid="{AAB73914-D0C8-EA46-A6B6-37179E15145B}"/>
-    <hyperlink ref="D16" r:id="rId31" xr:uid="{023E1972-7ED6-C248-B2F3-1DBB30AB6C73}"/>
-    <hyperlink ref="E16" r:id="rId32" xr:uid="{48A6B061-7726-6448-AB2F-40FE1FDA5632}"/>
-    <hyperlink ref="E14" r:id="rId33" xr:uid="{59634B0D-6DAC-B940-855A-A516300405B9}"/>
-    <hyperlink ref="D17" r:id="rId34" xr:uid="{DF0CBD99-F9F3-E64A-8918-9EC7FCDE7CA0}"/>
-    <hyperlink ref="A26" r:id="rId35" xr:uid="{4F1AD498-CEC4-6D4E-A854-F9049B60CAD8}"/>
-    <hyperlink ref="A27" r:id="rId36" xr:uid="{0DFFCD5D-96F3-B045-A11E-8D3CA2FE5C38}"/>
-    <hyperlink ref="A28" r:id="rId37" xr:uid="{5F7FAB92-53CB-C443-BD1B-9A10B0B18CBD}"/>
-    <hyperlink ref="C7" r:id="rId38" xr:uid="{48428E0C-5987-2C4C-9340-BE48F5FB8529}"/>
-    <hyperlink ref="F6" r:id="rId39" xr:uid="{83F49E4B-3CB6-0340-B4A9-29A361F603D5}"/>
-    <hyperlink ref="A25" r:id="rId40" xr:uid="{05C2B388-A06A-984C-9F6F-08D064C364BA}"/>
+    <hyperlink ref="E10" r:id="rId11" xr:uid="{58902E77-12BA-A641-B87A-C3FE956EA864}"/>
+    <hyperlink ref="F10" r:id="rId12" xr:uid="{7CA69986-1E40-2847-BA5B-4CB2A9775547}"/>
+    <hyperlink ref="C15" r:id="rId13" xr:uid="{0CCB0530-505D-8C4A-BF7F-A31CF5865B75}"/>
+    <hyperlink ref="D15" r:id="rId14" xr:uid="{8A8F7DC6-6899-274A-B7CE-81953503BE37}"/>
+    <hyperlink ref="C21" r:id="rId15" xr:uid="{DBA04197-3E7C-2C43-8C01-5771670E8E64}"/>
+    <hyperlink ref="C12" r:id="rId16" xr:uid="{C734A73C-01E4-A641-A26C-117257071656}"/>
+    <hyperlink ref="G10" r:id="rId17" xr:uid="{359C56EC-0100-3641-97D0-AA489B0FF678}"/>
+    <hyperlink ref="D10" r:id="rId18" xr:uid="{651935B8-6502-184B-A654-F6212FDC1D25}"/>
+    <hyperlink ref="D9" r:id="rId19" xr:uid="{B811D1D3-D0AA-724E-BE4A-DB5D5B6B141F}"/>
+    <hyperlink ref="D4" r:id="rId20" xr:uid="{6F84FCFD-211A-2142-B23B-9D18D497BB84}"/>
+    <hyperlink ref="D11" r:id="rId21" xr:uid="{A042FC4C-48DA-334A-9542-0DFF40D9534B}"/>
+    <hyperlink ref="D14" r:id="rId22" xr:uid="{6AA3F7C1-09FA-E845-B052-72B5BC0CAF20}"/>
+    <hyperlink ref="E4" r:id="rId23" xr:uid="{7C473629-D286-7B42-A6F3-230D114A6C76}"/>
+    <hyperlink ref="D7" r:id="rId24" xr:uid="{9DA2E75F-1BD4-C040-9687-E7E99AC662E9}"/>
+    <hyperlink ref="E7" r:id="rId25" xr:uid="{0BEB307F-A330-0E42-8A85-6D4D73C50D25}"/>
+    <hyperlink ref="D12" r:id="rId26" xr:uid="{D43B32D6-198A-0F42-95FB-CCAD5F11245C}"/>
+    <hyperlink ref="E12" r:id="rId27" xr:uid="{E17F405A-61B7-D64B-AD0F-1A6E19EF49ED}"/>
+    <hyperlink ref="F7" r:id="rId28" xr:uid="{B3BEC97D-BD89-E844-8FF3-FF0AFD134B2C}"/>
+    <hyperlink ref="G7" r:id="rId29" xr:uid="{C848AB00-7352-134F-8747-A8A91A531993}"/>
+    <hyperlink ref="C17" r:id="rId30" xr:uid="{AAB73914-D0C8-EA46-A6B6-37179E15145B}"/>
+    <hyperlink ref="D17" r:id="rId31" xr:uid="{023E1972-7ED6-C248-B2F3-1DBB30AB6C73}"/>
+    <hyperlink ref="E17" r:id="rId32" xr:uid="{48A6B061-7726-6448-AB2F-40FE1FDA5632}"/>
+    <hyperlink ref="E15" r:id="rId33" xr:uid="{59634B0D-6DAC-B940-855A-A516300405B9}"/>
+    <hyperlink ref="D18" r:id="rId34" xr:uid="{DF0CBD99-F9F3-E64A-8918-9EC7FCDE7CA0}"/>
+    <hyperlink ref="A27" r:id="rId35" xr:uid="{4F1AD498-CEC4-6D4E-A854-F9049B60CAD8}"/>
+    <hyperlink ref="A28" r:id="rId36" xr:uid="{0DFFCD5D-96F3-B045-A11E-8D3CA2FE5C38}"/>
+    <hyperlink ref="A29" r:id="rId37" xr:uid="{5F7FAB92-53CB-C443-BD1B-9A10B0B18CBD}"/>
+    <hyperlink ref="C8" r:id="rId38" xr:uid="{48428E0C-5987-2C4C-9340-BE48F5FB8529}"/>
+    <hyperlink ref="F4" r:id="rId39" xr:uid="{83F49E4B-3CB6-0340-B4A9-29A361F603D5}"/>
+    <hyperlink ref="A26" r:id="rId40" xr:uid="{05C2B388-A06A-984C-9F6F-08D064C364BA}"/>
+    <hyperlink ref="G4" r:id="rId41" xr:uid="{E01927FD-4A9E-3443-8780-FF05C31A3531}"/>
+    <hyperlink ref="D21" r:id="rId42" xr:uid="{E2DC55CC-2994-2D41-9C49-179D1CD33980}"/>
+    <hyperlink ref="E21" r:id="rId43" xr:uid="{DCEDCF90-832C-DB48-98D1-2E8AF2783AFC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13919B8-F934-B64B-811A-4EC5AB312C98}">
   <dimension ref="A1:D87"/>
   <sheetViews>
@@ -2088,14 +2449,14 @@
       <selection activeCell="A28" sqref="A28:XFD28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="52.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2106,7 +2467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>130</v>
       </c>
@@ -2117,7 +2478,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>432</v>
       </c>
@@ -2128,7 +2489,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>86</v>
       </c>
@@ -2139,7 +2500,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
         <v>16</v>
       </c>
@@ -2150,7 +2511,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>100</v>
       </c>
@@ -2162,7 +2523,7 @@
       </c>
       <c r="D6" s="14"/>
     </row>
-    <row r="7" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>149</v>
       </c>
@@ -2173,7 +2534,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>200</v>
       </c>
@@ -2184,7 +2545,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>384</v>
       </c>
@@ -2195,7 +2556,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>716</v>
       </c>
@@ -2206,7 +2567,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>88</v>
       </c>
@@ -2217,7 +2578,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>93</v>
       </c>
@@ -2228,7 +2589,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>349</v>
       </c>
@@ -2239,7 +2600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>344</v>
       </c>
@@ -2250,7 +2611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>21</v>
       </c>
@@ -2261,7 +2622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>23</v>
       </c>
@@ -2272,7 +2633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>605</v>
       </c>
@@ -2283,7 +2644,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>53</v>
       </c>
@@ -2294,7 +2655,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>152</v>
       </c>
@@ -2305,7 +2666,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>198</v>
       </c>
@@ -2316,7 +2677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>73</v>
       </c>
@@ -2327,7 +2688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>50</v>
       </c>
@@ -2338,7 +2699,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>173</v>
       </c>
@@ -2349,7 +2710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>658</v>
       </c>
@@ -2360,7 +2721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>698</v>
       </c>
@@ -2371,7 +2732,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>84</v>
       </c>
@@ -2382,7 +2743,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>235</v>
       </c>
@@ -2393,7 +2754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>373</v>
       </c>
@@ -2404,7 +2765,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>88</v>
       </c>
@@ -2415,7 +2776,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>730</v>
       </c>
@@ -2426,7 +2787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>85</v>
       </c>
@@ -2437,7 +2798,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>329</v>
       </c>
@@ -2448,7 +2809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>146</v>
       </c>
@@ -2459,7 +2820,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>8</v>
       </c>
@@ -2467,7 +2828,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>9</v>
       </c>
@@ -2475,7 +2836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>236</v>
       </c>
@@ -2486,7 +2847,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>322</v>
       </c>
@@ -2497,7 +2858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>82</v>
       </c>
@@ -2508,7 +2869,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>366</v>
       </c>
@@ -2519,7 +2880,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>160</v>
       </c>
@@ -2530,7 +2891,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>103</v>
       </c>
@@ -2541,7 +2902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>57</v>
       </c>
@@ -2552,7 +2913,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>636</v>
       </c>
@@ -2563,7 +2924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>69</v>
       </c>
@@ -2574,7 +2935,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>215</v>
       </c>
@@ -2585,7 +2946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>87</v>
       </c>
@@ -2596,7 +2957,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>297</v>
       </c>
@@ -2607,7 +2968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>17</v>
       </c>
@@ -2615,7 +2976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>341</v>
       </c>
@@ -2626,7 +2987,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>160</v>
       </c>
@@ -2637,7 +2998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>890</v>
       </c>
@@ -2648,7 +3009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>886</v>
       </c>
@@ -2659,7 +3020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>104</v>
       </c>
@@ -2670,7 +3031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>102</v>
       </c>
@@ -2681,7 +3042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>382</v>
       </c>
@@ -2692,7 +3053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>21</v>
       </c>
@@ -2700,7 +3061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>600</v>
       </c>
@@ -2711,7 +3072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>948</v>
       </c>
@@ -2722,7 +3083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>65</v>
       </c>
@@ -2733,7 +3094,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>611</v>
       </c>
@@ -2744,7 +3105,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>516</v>
       </c>
@@ -2755,7 +3116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>150</v>
       </c>
@@ -2766,7 +3127,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B63" s="9" t="s">
         <v>26</v>
       </c>
@@ -2777,7 +3138,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>136</v>
       </c>
@@ -2788,7 +3149,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>56</v>
       </c>
@@ -2799,7 +3160,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>621</v>
       </c>
@@ -2810,7 +3171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>170</v>
       </c>
@@ -2821,7 +3182,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>33</v>
       </c>
@@ -2832,7 +3193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>377</v>
       </c>
@@ -2843,7 +3204,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>125</v>
       </c>
@@ -2854,7 +3215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:3" s="9" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="9">
         <v>72</v>
       </c>
@@ -2865,7 +3226,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>277</v>
       </c>
@@ -2876,7 +3237,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>5</v>
       </c>
@@ -2887,7 +3248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>156</v>
       </c>
@@ -2898,7 +3259,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>706</v>
       </c>
@@ -2909,7 +3270,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>426</v>
       </c>
@@ -2920,7 +3281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>20</v>
       </c>
@@ -2931,7 +3292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>142</v>
       </c>
@@ -2942,7 +3303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>68</v>
       </c>
@@ -2953,7 +3314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>268</v>
       </c>
@@ -2964,7 +3325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>62</v>
       </c>
@@ -2975,7 +3336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>352</v>
       </c>
@@ -2986,7 +3347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>416</v>
       </c>
@@ -2997,7 +3358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>547</v>
       </c>
@@ -3008,7 +3369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>671</v>
       </c>
@@ -3019,7 +3380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>254</v>
       </c>
@@ -3030,7 +3391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>895</v>
       </c>
